--- a/database/capsules_spreadsheets/Fall 2023 Capsules.xlsx
+++ b/database/capsules_spreadsheets/Fall 2023 Capsules.xlsx
@@ -11,15 +11,15 @@
     <definedName localSheetId="1" name="Examples">#REF!</definedName>
     <definedName name="Examples">'Fall 2023'!$A$3:$P$3</definedName>
     <definedName name="LOCKED_CAPSULES">'Fall 2023'!$A$1:$P$28</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_C682B7EC_BBEF_496F_86D0_1C1FD7F91C48_.wvu.FilterData">'Fall 2023'!$R$1:$R$79</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_9985D1F3_6FD3_43D9_9719_C72089C412B0_.wvu.FilterData">'Fall 2023'!$A$1:$R$93</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_6D0229D4_6CE7_4120_AF90_B69F540531EB_.wvu.FilterData">'Fall 2023'!$A$1:$R$93</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_A35D790B_FEB4_4D5C_91F2_574379E3F185_.wvu.FilterData">'Fall 2023'!$R$1:$R$77</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_4909E768_953F_41D0_A760_0A22D058F2BC_.wvu.FilterData">'Fall 2023'!$A$1:$R$77</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_9D661EC4_D0A0_43EA_986D_1A5BD471CA74_.wvu.FilterData">'Fall 2023'!$A$1:$R$77</definedName>
   </definedNames>
   <calcPr/>
   <customWorkbookViews>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{6D0229D4-6CE7-4120-AF90-B69F540531EB}" name="Filter 2"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{9985D1F3-6FD3-43D9-9719-C72089C412B0}" name="Filter 3"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{C682B7EC-BBEF-496F-86D0-1C1FD7F91C48}" name="Filter 1"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{9D661EC4-D0A0-43EA-986D-1A5BD471CA74}" name="Filter 2"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{4909E768-953F-41D0-A760-0A22D058F2BC}" name="Filter 3"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{A35D790B-FEB4-4D5C-91F2-574379E3F185}" name="Filter 1"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -84,7 +84,7 @@
 	-Design Doc Films</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H76">
+    <comment authorId="0" ref="H75">
       <text>
         <t xml:space="preserve">I would like a single capsule for these.
 	-Design Doc Films</t>
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="403">
   <si>
     <t>title</t>
   </si>
@@ -237,7 +237,7 @@
     <t xml:space="preserve">A Night Owls Event, with Professors Agnes Callard and Daniel Morgan. Free with Night Owls QR Code Sign-in. </t>
   </si>
   <si>
-    <t>SE</t>
+    <t>Special Event</t>
   </si>
   <si>
     <t>The Night of the Hunter</t>
@@ -418,7 +418,7 @@
     <t xml:space="preserve">_In the beginning, there was Barbie_. And then, there were _Barbillion_! It felt like a party — and we're bringing this party to Doc. Join us on your rollerblades, boats, rocket ships, and bicycles to celebrate a film about individualism, cognitive dissonance, and Kens discovering the patriarchy. Plus, Gerwig cites Demy, Tati, Kubrick, Gene Kelly musicals, and more as filmic influences. Come see what _that's_ all about. The dress code is hot pink. </t>
   </si>
   <si>
-    <t>NR</t>
+    <t>Saturday</t>
   </si>
   <si>
     <t xml:space="preserve">El grito </t>
@@ -427,7 +427,7 @@
     <t>Leobardo López Aretche</t>
   </si>
   <si>
-    <t>A rare visual artifact of the Tlatelolco massacre, _El Grito_ remained unreleased in Mexico for fifty years, becoming a touchstone of censorship during the reign of the PRI party. A glimpse into the final hours of peaceful protest, music, and an ominous police presence, this documentary captures the leadup to the largest flash point in Mexican politics following the revolution. El Grito_ is only now becoming recognized as a significant record of Mexico’s darkest moment.</t>
+    <t>A rare visual artifact of the Tlatelolco massacre, _El Grito_ remained unreleased in Mexico for fifty years, becoming a touchstone of censorship during the reign of the PRI party. A glimpse into the final hours of peaceful protest, music, and an ominous police presence, this documentary captures the leadup to the largest flash point in Mexican politics following the revolution. _El Grito_ is only now becoming recognized as a significant record of Mexico’s darkest moment.</t>
   </si>
   <si>
     <t>104mins</t>
@@ -1296,16 +1296,10 @@
     <t>Patricio Guzmán</t>
   </si>
   <si>
-    <t>1975-1978</t>
-  </si>
-  <si>
     <t>Described by Pauline Kael as a testament to what Marxism in film could produce, this epic documentary spans the years leading up to and following the 1973 coup in Chile led by Augusto Pinochet and backed by the CIA (and distinguished alumni of UChicago). A massive undertaking for the filmmakers, and to some degree the audience, _The Battle of Chile_ reveals the open wound created by right-wing authoritarianism and the dashed hopes of a nation’s social democracy.</t>
   </si>
   <si>
     <t>262mins</t>
-  </si>
-  <si>
-    <t>no</t>
   </si>
   <si>
     <t xml:space="preserve">There will be an intermission. </t>
@@ -1433,15 +1427,6 @@
   </si>
   <si>
     <t xml:space="preserve">Brazilian conference happening until 6-6:30. Prep time for 11/11 show: 30min-1hr. </t>
-  </si>
-  <si>
-    <t>XXXXXX</t>
-  </si>
-  <si>
-    <t>XXXX</t>
-  </si>
-  <si>
-    <t>XXX</t>
   </si>
   <si>
     <t>Sambizanga</t>
@@ -1668,13 +1653,16 @@
     <t>99mins</t>
   </si>
   <si>
-    <t>Mothra Vs. Godzilla</t>
+    <t xml:space="preserve">Mothra Vs. Godzilla // Ghidora, The Three-Headed Monster </t>
   </si>
   <si>
     <t xml:space="preserve">Isaiah </t>
   </si>
   <si>
     <t>Ishiro Honda</t>
+  </si>
+  <si>
+    <t>1964 // 1964</t>
   </si>
   <si>
     <r>
@@ -1710,11 +1698,14 @@
         <rFont val="Arial"/>
         <color rgb="FF000000"/>
       </rPr>
-      <t>apan and the envrionmental toll of nuclear testing. Plus, _Ghidora_ smashes in with an all-star Kaiju cast, as Rodan, Mothra, and Godzilla team up against the titular titan. With aliens, assassins, and political intrigue, _Ghidora_ (and _Mothra_!_) make for a one-of-a-kind experience to see on the big screen.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">89mins </t>
+      <t>apan and the envrionmental toll of nuclear testing. Plus, _Ghidora_ smashes in with an all-star Kaiju cast, as Rodan, Mothra, and Godzilla team up against the titular titan. With aliens, assassins, and political intrigue, _Ghidora_ (and _Mothra!_) make for a one-of-a-kind experience to see on the big screen.</t>
+    </r>
+  </si>
+  <si>
+    <t>89mins // 93mins</t>
+  </si>
+  <si>
+    <t>DCP // DCP</t>
   </si>
   <si>
     <t>(Sponsored by X. or other notes TBD but almost definitely coming).
@@ -1738,9 +1729,6 @@
     </r>
   </si>
   <si>
-    <t>Ghidora, The Three-Headed Monster</t>
-  </si>
-  <si>
     <t>Full Metal Jacket</t>
   </si>
   <si>
@@ -1903,6 +1891,9 @@
     <t>New Releases</t>
   </si>
   <si>
+    <t>new movies! some are good, some are bad; some even get awards! come and see 'em. [oh my god please don't use this.]</t>
+  </si>
+  <si>
     <t>Open Veins: Postcolonial Cinema of the Luso-Hispanic World</t>
   </si>
   <si>
@@ -1910,6 +1901,9 @@
   </si>
   <si>
     <t>Sponsored by the UChicago Forum For Free Inquiry and Expression</t>
+  </si>
+  <si>
+    <t>Special Events</t>
   </si>
 </sst>
 </file>
@@ -2056,7 +2050,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="162">
+  <cellXfs count="160">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
@@ -2359,12 +2353,6 @@
     </xf>
     <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="4" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -2695,7 +2683,7 @@
         <v>18</v>
       </c>
       <c r="B2" s="6">
-        <f t="shared" ref="B2:B93" si="1">len(H2)</f>
+        <f t="shared" ref="B2:B77" si="1">len(H2)</f>
         <v>497</v>
       </c>
       <c r="C2" s="7" t="s">
@@ -3153,10 +3141,10 @@
       <c r="L11" s="38">
         <v>0.7916666666666666</v>
       </c>
-      <c r="M11" s="32">
+      <c r="M11" s="56">
         <v>45234.0</v>
       </c>
-      <c r="N11" s="33">
+      <c r="N11" s="31">
         <v>0.6666666666666666</v>
       </c>
       <c r="O11" s="24"/>
@@ -3172,7 +3160,7 @@
       </c>
       <c r="B12" s="6">
         <f t="shared" si="1"/>
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C12" s="22" t="s">
         <v>54</v>
@@ -5182,14 +5170,14 @@
       <c r="F53" s="25" t="s">
         <v>263</v>
       </c>
-      <c r="G53" s="26" t="s">
+      <c r="G53" s="26">
+        <v>1978.0</v>
+      </c>
+      <c r="H53" s="44" t="s">
         <v>264</v>
       </c>
-      <c r="H53" s="44" t="s">
+      <c r="I53" s="26" t="s">
         <v>265</v>
-      </c>
-      <c r="I53" s="26" t="s">
-        <v>266</v>
       </c>
       <c r="J53" s="29" t="s">
         <v>37</v>
@@ -5200,17 +5188,13 @@
       <c r="L53" s="38">
         <v>0.5833333333333334</v>
       </c>
-      <c r="M53" s="83" t="s">
+      <c r="M53" s="83"/>
+      <c r="N53" s="83"/>
+      <c r="O53" s="24" t="s">
+        <v>266</v>
+      </c>
+      <c r="P53" s="46" t="s">
         <v>267</v>
-      </c>
-      <c r="N53" s="83" t="s">
-        <v>267</v>
-      </c>
-      <c r="O53" s="24" t="s">
-        <v>268</v>
-      </c>
-      <c r="P53" s="46" t="s">
-        <v>269</v>
       </c>
       <c r="Q53" s="22"/>
       <c r="R53" s="34" t="s">
@@ -5219,7 +5203,7 @@
     </row>
     <row r="54">
       <c r="A54" s="59" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B54" s="6">
         <f t="shared" si="1"/>
@@ -5235,16 +5219,16 @@
         <v>27</v>
       </c>
       <c r="F54" s="25" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G54" s="26">
         <v>1936.0</v>
       </c>
       <c r="H54" s="22" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="I54" s="26" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J54" s="29" t="s">
         <v>51</v>
@@ -5266,7 +5250,7 @@
     </row>
     <row r="55">
       <c r="A55" s="41" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B55" s="6">
         <f t="shared" si="1"/>
@@ -5282,16 +5266,16 @@
         <v>27</v>
       </c>
       <c r="F55" s="25" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G55" s="26">
         <v>1931.0</v>
       </c>
       <c r="H55" s="47" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="I55" s="26" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="J55" s="29" t="s">
         <v>51</v>
@@ -5313,7 +5297,7 @@
     </row>
     <row r="56">
       <c r="A56" s="51" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B56" s="6">
         <f t="shared" si="1"/>
@@ -5333,10 +5317,10 @@
         <v>1991.0</v>
       </c>
       <c r="H56" s="66" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="I56" s="26" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="J56" s="29" t="s">
         <v>37</v>
@@ -5358,7 +5342,7 @@
     </row>
     <row r="57">
       <c r="A57" s="41" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B57" s="6">
         <f t="shared" si="1"/>
@@ -5374,16 +5358,16 @@
         <v>27</v>
       </c>
       <c r="F57" s="25" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G57" s="26">
         <v>1995.0</v>
       </c>
       <c r="H57" s="44" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="I57" s="26" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="J57" s="29" t="s">
         <v>51</v>
@@ -5402,7 +5386,7 @@
       </c>
       <c r="O57" s="39"/>
       <c r="P57" s="46" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="Q57" s="40"/>
       <c r="R57" s="34" t="s">
@@ -5411,7 +5395,7 @@
     </row>
     <row r="58">
       <c r="A58" s="41" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B58" s="6">
         <f t="shared" si="1"/>
@@ -5427,13 +5411,13 @@
         <v>27</v>
       </c>
       <c r="F58" s="79" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="G58" s="80">
         <v>1968.0</v>
       </c>
       <c r="H58" s="81" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I58" s="26" t="s">
         <v>253</v>
@@ -5458,7 +5442,7 @@
     </row>
     <row r="59">
       <c r="A59" s="41" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B59" s="6">
         <f t="shared" si="1"/>
@@ -5474,16 +5458,16 @@
         <v>27</v>
       </c>
       <c r="F59" s="66" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G59" s="26">
         <v>1950.0</v>
       </c>
       <c r="H59" s="47" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="I59" s="26" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="J59" s="29" t="s">
         <v>51</v>
@@ -5502,7 +5486,7 @@
       </c>
       <c r="O59" s="39"/>
       <c r="P59" s="88" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="Q59" s="22"/>
       <c r="R59" s="34" t="s">
@@ -5510,32 +5494,42 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="41"/>
+      <c r="A60" s="41" t="s">
+        <v>292</v>
+      </c>
       <c r="B60" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C60" s="22"/>
-      <c r="D60" s="22"/>
-      <c r="E60" s="24"/>
-      <c r="F60" s="25" t="s">
+        <v>462</v>
+      </c>
+      <c r="C60" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="D60" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="E60" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="F60" s="43" t="s">
+        <v>293</v>
+      </c>
+      <c r="G60" s="26">
+        <v>1972.0</v>
+      </c>
+      <c r="H60" s="44" t="s">
         <v>294</v>
       </c>
-      <c r="G60" s="26" t="s">
-        <v>295</v>
-      </c>
-      <c r="H60" s="66"/>
       <c r="I60" s="26" t="s">
-        <v>295</v>
+        <v>213</v>
       </c>
       <c r="J60" s="29" t="s">
-        <v>296</v>
-      </c>
-      <c r="K60" s="82" t="s">
-        <v>296</v>
-      </c>
-      <c r="L60" s="27" t="s">
-        <v>295</v>
+        <v>37</v>
+      </c>
+      <c r="K60" s="30">
+        <v>45242.0</v>
+      </c>
+      <c r="L60" s="38">
+        <v>0.7708333333333334</v>
       </c>
       <c r="M60" s="32"/>
       <c r="N60" s="33"/>
@@ -5543,90 +5537,90 @@
       <c r="P60" s="39"/>
       <c r="Q60" s="22"/>
       <c r="R60" s="34" t="s">
-        <v>296</v>
+        <v>89</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="41" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B61" s="6">
         <f t="shared" si="1"/>
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="C61" s="22" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="D61" s="22" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E61" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="F61" s="43" t="s">
-        <v>298</v>
+      <c r="F61" s="25" t="s">
+        <v>92</v>
       </c>
       <c r="G61" s="26">
-        <v>1972.0</v>
-      </c>
-      <c r="H61" s="44" t="s">
-        <v>299</v>
-      </c>
-      <c r="I61" s="26" t="s">
-        <v>213</v>
+        <v>1937.0</v>
+      </c>
+      <c r="H61" s="47" t="s">
+        <v>296</v>
+      </c>
+      <c r="I61" s="98" t="s">
+        <v>297</v>
       </c>
       <c r="J61" s="29" t="s">
         <v>37</v>
       </c>
       <c r="K61" s="30">
-        <v>45242.0</v>
-      </c>
-      <c r="L61" s="38">
-        <v>0.7708333333333334</v>
+        <v>45243.0</v>
+      </c>
+      <c r="L61" s="96">
+        <v>0.7916666666666666</v>
       </c>
       <c r="M61" s="32"/>
       <c r="N61" s="33"/>
       <c r="O61" s="39"/>
       <c r="P61" s="39"/>
-      <c r="Q61" s="22"/>
+      <c r="Q61" s="40"/>
       <c r="R61" s="34" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="41" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B62" s="6">
         <f t="shared" si="1"/>
-        <v>454</v>
+        <v>403</v>
       </c>
       <c r="C62" s="22" t="s">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="D62" s="22" t="s">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="E62" s="24" t="s">
         <v>27</v>
       </c>
       <c r="F62" s="25" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
       <c r="G62" s="26">
-        <v>1937.0</v>
+        <v>1964.0</v>
       </c>
       <c r="H62" s="47" t="s">
-        <v>301</v>
-      </c>
-      <c r="I62" s="98" t="s">
-        <v>302</v>
-      </c>
-      <c r="J62" s="29" t="s">
+        <v>299</v>
+      </c>
+      <c r="I62" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="J62" s="23" t="s">
         <v>37</v>
       </c>
       <c r="K62" s="30">
-        <v>45243.0</v>
+        <v>45244.0</v>
       </c>
       <c r="L62" s="96">
         <v>0.7916666666666666</v>
@@ -5634,46 +5628,46 @@
       <c r="M62" s="32"/>
       <c r="N62" s="33"/>
       <c r="O62" s="39"/>
-      <c r="P62" s="39"/>
-      <c r="Q62" s="40"/>
+      <c r="P62" s="27"/>
+      <c r="Q62" s="22"/>
       <c r="R62" s="34" t="s">
-        <v>95</v>
+        <v>45</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="41" t="s">
-        <v>303</v>
+      <c r="A63" s="51" t="s">
+        <v>300</v>
       </c>
       <c r="B63" s="6">
         <f t="shared" si="1"/>
-        <v>403</v>
+        <v>444</v>
       </c>
       <c r="C63" s="22" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D63" s="22" t="s">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="E63" s="24" t="s">
         <v>27</v>
       </c>
       <c r="F63" s="25" t="s">
-        <v>132</v>
+        <v>48</v>
       </c>
       <c r="G63" s="26">
-        <v>1964.0</v>
-      </c>
-      <c r="H63" s="47" t="s">
-        <v>304</v>
+        <v>1999.0</v>
+      </c>
+      <c r="H63" s="66" t="s">
+        <v>301</v>
       </c>
       <c r="I63" s="26" t="s">
-        <v>228</v>
+        <v>302</v>
       </c>
       <c r="J63" s="23" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="K63" s="30">
-        <v>45244.0</v>
+        <v>45245.0</v>
       </c>
       <c r="L63" s="96">
         <v>0.7916666666666666</v>
@@ -5684,54 +5678,60 @@
       <c r="P63" s="27"/>
       <c r="Q63" s="22"/>
       <c r="R63" s="34" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="51" t="s">
-        <v>305</v>
+      <c r="A64" s="41" t="s">
+        <v>303</v>
       </c>
       <c r="B64" s="6">
         <f t="shared" si="1"/>
-        <v>444</v>
+        <v>380</v>
       </c>
       <c r="C64" s="22" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="D64" s="22" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E64" s="24" t="s">
         <v>27</v>
       </c>
       <c r="F64" s="25" t="s">
-        <v>48</v>
+        <v>304</v>
       </c>
       <c r="G64" s="26">
-        <v>1999.0</v>
-      </c>
-      <c r="H64" s="66" t="s">
+        <v>2001.0</v>
+      </c>
+      <c r="H64" s="44" t="s">
+        <v>305</v>
+      </c>
+      <c r="I64" s="26" t="s">
         <v>306</v>
       </c>
-      <c r="I64" s="26" t="s">
-        <v>307</v>
-      </c>
       <c r="J64" s="23" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="K64" s="30">
-        <v>45245.0</v>
+        <v>45246.0</v>
       </c>
       <c r="L64" s="96">
         <v>0.7916666666666666</v>
       </c>
-      <c r="M64" s="32"/>
-      <c r="N64" s="33"/>
+      <c r="M64" s="56">
+        <v>45248.0</v>
+      </c>
+      <c r="N64" s="31">
+        <v>0.6666666666666666</v>
+      </c>
       <c r="O64" s="39"/>
-      <c r="P64" s="27"/>
+      <c r="P64" s="88" t="s">
+        <v>307</v>
+      </c>
       <c r="Q64" s="22"/>
       <c r="R64" s="34" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="65">
@@ -5740,24 +5740,24 @@
       </c>
       <c r="B65" s="6">
         <f t="shared" si="1"/>
-        <v>380</v>
+        <v>411</v>
       </c>
       <c r="C65" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="D65" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="E65" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="D65" s="77" t="s">
+        <v>177</v>
+      </c>
+      <c r="E65" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="F65" s="25" t="s">
+      <c r="F65" s="79" t="s">
         <v>309</v>
       </c>
-      <c r="G65" s="26">
-        <v>2001.0</v>
-      </c>
-      <c r="H65" s="44" t="s">
+      <c r="G65" s="80">
+        <v>1965.0</v>
+      </c>
+      <c r="H65" s="86" t="s">
         <v>310</v>
       </c>
       <c r="I65" s="26" t="s">
@@ -5770,60 +5770,54 @@
         <v>45246.0</v>
       </c>
       <c r="L65" s="96">
-        <v>0.7916666666666666</v>
-      </c>
-      <c r="M65" s="56">
-        <v>45248.0</v>
-      </c>
-      <c r="N65" s="31">
-        <v>0.6666666666666666</v>
-      </c>
+        <v>0.8958333333333334</v>
+      </c>
+      <c r="M65" s="32"/>
+      <c r="N65" s="33"/>
       <c r="O65" s="39"/>
-      <c r="P65" s="88" t="s">
-        <v>312</v>
-      </c>
+      <c r="P65" s="27"/>
       <c r="Q65" s="22"/>
       <c r="R65" s="34" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="41" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B66" s="6">
         <f t="shared" si="1"/>
-        <v>411</v>
+        <v>456</v>
       </c>
       <c r="C66" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="D66" s="77" t="s">
-        <v>177</v>
-      </c>
-      <c r="E66" s="78" t="s">
+        <v>67</v>
+      </c>
+      <c r="D66" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E66" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="F66" s="79" t="s">
+      <c r="F66" s="25" t="s">
+        <v>313</v>
+      </c>
+      <c r="G66" s="26">
+        <v>1974.0</v>
+      </c>
+      <c r="H66" s="47" t="s">
         <v>314</v>
       </c>
-      <c r="G66" s="80">
-        <v>1965.0</v>
-      </c>
-      <c r="H66" s="86" t="s">
+      <c r="I66" s="26" t="s">
         <v>315</v>
       </c>
-      <c r="I66" s="26" t="s">
-        <v>316</v>
-      </c>
       <c r="J66" s="23" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="K66" s="30">
-        <v>45246.0</v>
+        <v>45247.0</v>
       </c>
       <c r="L66" s="96">
-        <v>0.8958333333333334</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="M66" s="32"/>
       <c r="N66" s="33"/>
@@ -5831,66 +5825,72 @@
       <c r="P66" s="27"/>
       <c r="Q66" s="22"/>
       <c r="R66" s="34" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="41" t="s">
-        <v>317</v>
+      <c r="A67" s="51" t="s">
+        <v>316</v>
       </c>
       <c r="B67" s="6">
         <f t="shared" si="1"/>
-        <v>456</v>
+        <v>441</v>
       </c>
       <c r="C67" s="22" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D67" s="22" t="s">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="E67" s="24" t="s">
         <v>27</v>
       </c>
       <c r="F67" s="25" t="s">
+        <v>317</v>
+      </c>
+      <c r="G67" s="26">
+        <v>2016.0</v>
+      </c>
+      <c r="H67" s="70" t="s">
         <v>318</v>
       </c>
-      <c r="G67" s="26">
-        <v>1974.0</v>
-      </c>
-      <c r="H67" s="47" t="s">
+      <c r="I67" s="26" t="s">
         <v>319</v>
       </c>
-      <c r="I67" s="26" t="s">
-        <v>320</v>
-      </c>
       <c r="J67" s="23" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="K67" s="30">
-        <v>45247.0</v>
+        <v>45248.0</v>
       </c>
       <c r="L67" s="96">
         <v>0.7916666666666666</v>
       </c>
-      <c r="M67" s="32"/>
-      <c r="N67" s="33"/>
+      <c r="M67" s="56">
+        <v>45249.0</v>
+      </c>
+      <c r="N67" s="31">
+        <v>0.625</v>
+      </c>
       <c r="O67" s="39"/>
-      <c r="P67" s="27"/>
+      <c r="P67" s="88" t="s">
+        <v>320</v>
+      </c>
       <c r="Q67" s="22"/>
       <c r="R67" s="34" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="51" t="s">
+      <c r="A68" s="41" t="s">
         <v>321</v>
       </c>
       <c r="B68" s="6">
         <f t="shared" si="1"/>
-        <v>441</v>
+        <v>352</v>
       </c>
       <c r="C68" s="22" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="D68" s="22" t="s">
         <v>79</v>
@@ -5902,36 +5902,32 @@
         <v>322</v>
       </c>
       <c r="G68" s="26">
-        <v>2016.0</v>
-      </c>
-      <c r="H68" s="70" t="s">
+        <v>1977.0</v>
+      </c>
+      <c r="H68" s="66" t="s">
         <v>323</v>
       </c>
       <c r="I68" s="26" t="s">
         <v>324</v>
       </c>
       <c r="J68" s="23" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="K68" s="30">
-        <v>45248.0</v>
+        <v>45249.0</v>
       </c>
       <c r="L68" s="96">
-        <v>0.7916666666666666</v>
-      </c>
-      <c r="M68" s="56">
-        <v>45249.0</v>
-      </c>
-      <c r="N68" s="31">
-        <v>0.625</v>
-      </c>
-      <c r="O68" s="39"/>
-      <c r="P68" s="88" t="s">
+        <v>0.7708333333333334</v>
+      </c>
+      <c r="M68" s="32"/>
+      <c r="N68" s="33"/>
+      <c r="O68" s="99" t="s">
         <v>325</v>
       </c>
+      <c r="P68" s="27"/>
       <c r="Q68" s="22"/>
       <c r="R68" s="34" t="s">
-        <v>39</v>
+        <v>89</v>
       </c>
     </row>
     <row r="69">
@@ -5940,13 +5936,13 @@
       </c>
       <c r="B69" s="6">
         <f t="shared" si="1"/>
-        <v>352</v>
+        <v>447</v>
       </c>
       <c r="C69" s="22" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="D69" s="22" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E69" s="24" t="s">
         <v>27</v>
@@ -5955,68 +5951,66 @@
         <v>327</v>
       </c>
       <c r="G69" s="26">
-        <v>1977.0</v>
-      </c>
-      <c r="H69" s="66" t="s">
+        <v>1929.0</v>
+      </c>
+      <c r="H69" s="47" t="s">
         <v>328</v>
       </c>
       <c r="I69" s="26" t="s">
         <v>329</v>
       </c>
       <c r="J69" s="23" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="K69" s="30">
-        <v>45249.0</v>
+        <v>45257.0</v>
       </c>
       <c r="L69" s="96">
-        <v>0.7708333333333334</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="M69" s="32"/>
       <c r="N69" s="33"/>
-      <c r="O69" s="99" t="s">
-        <v>330</v>
-      </c>
+      <c r="O69" s="39"/>
       <c r="P69" s="27"/>
       <c r="Q69" s="22"/>
       <c r="R69" s="34" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="41" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B70" s="6">
         <f t="shared" si="1"/>
-        <v>447</v>
+        <v>393</v>
       </c>
       <c r="C70" s="22" t="s">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="D70" s="22" t="s">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="E70" s="24" t="s">
         <v>27</v>
       </c>
       <c r="F70" s="25" t="s">
+        <v>331</v>
+      </c>
+      <c r="G70" s="26">
+        <v>1997.0</v>
+      </c>
+      <c r="H70" s="47" t="s">
         <v>332</v>
       </c>
-      <c r="G70" s="26">
-        <v>1929.0</v>
-      </c>
-      <c r="H70" s="47" t="s">
-        <v>333</v>
-      </c>
       <c r="I70" s="26" t="s">
-        <v>334</v>
+        <v>101</v>
       </c>
       <c r="J70" s="23" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="K70" s="30">
-        <v>45257.0</v>
+        <v>45258.0</v>
       </c>
       <c r="L70" s="96">
         <v>0.7916666666666666</v>
@@ -6027,43 +6021,41 @@
       <c r="P70" s="27"/>
       <c r="Q70" s="22"/>
       <c r="R70" s="34" t="s">
-        <v>95</v>
+        <v>45</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="41" t="s">
-        <v>335</v>
+      <c r="A71" s="51" t="s">
+        <v>333</v>
       </c>
       <c r="B71" s="6">
         <f t="shared" si="1"/>
-        <v>393</v>
+        <v>455</v>
       </c>
       <c r="C71" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="D71" s="22" t="s">
-        <v>33</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="D71" s="22"/>
       <c r="E71" s="24" t="s">
         <v>27</v>
       </c>
       <c r="F71" s="25" t="s">
-        <v>336</v>
+        <v>48</v>
       </c>
       <c r="G71" s="26">
-        <v>1997.0</v>
-      </c>
-      <c r="H71" s="47" t="s">
-        <v>337</v>
+        <v>2003.0</v>
+      </c>
+      <c r="H71" s="66" t="s">
+        <v>334</v>
       </c>
       <c r="I71" s="26" t="s">
-        <v>101</v>
+        <v>302</v>
       </c>
       <c r="J71" s="23" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="K71" s="30">
-        <v>45258.0</v>
+        <v>45259.0</v>
       </c>
       <c r="L71" s="96">
         <v>0.7916666666666666</v>
@@ -6074,41 +6066,43 @@
       <c r="P71" s="27"/>
       <c r="Q71" s="22"/>
       <c r="R71" s="34" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="51" t="s">
-        <v>338</v>
+      <c r="A72" s="41" t="s">
+        <v>335</v>
       </c>
       <c r="B72" s="6">
         <f t="shared" si="1"/>
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="C72" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="D72" s="22"/>
+        <v>54</v>
+      </c>
+      <c r="D72" s="22" t="s">
+        <v>55</v>
+      </c>
       <c r="E72" s="24" t="s">
         <v>27</v>
       </c>
       <c r="F72" s="25" t="s">
-        <v>48</v>
+        <v>336</v>
       </c>
       <c r="G72" s="26">
-        <v>2003.0</v>
-      </c>
-      <c r="H72" s="66" t="s">
-        <v>339</v>
-      </c>
-      <c r="I72" s="26" t="s">
-        <v>307</v>
+        <v>2019.0</v>
+      </c>
+      <c r="H72" s="44" t="s">
+        <v>337</v>
+      </c>
+      <c r="I72" s="98" t="s">
+        <v>338</v>
       </c>
       <c r="J72" s="23" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="K72" s="30">
-        <v>45259.0</v>
+        <v>45260.0</v>
       </c>
       <c r="L72" s="96">
         <v>0.7916666666666666</v>
@@ -6116,10 +6110,12 @@
       <c r="M72" s="32"/>
       <c r="N72" s="33"/>
       <c r="O72" s="39"/>
-      <c r="P72" s="27"/>
+      <c r="P72" s="88" t="s">
+        <v>339</v>
+      </c>
       <c r="Q72" s="22"/>
       <c r="R72" s="34" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="73">
@@ -6128,28 +6124,28 @@
       </c>
       <c r="B73" s="6">
         <f t="shared" si="1"/>
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="C73" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="D73" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="E73" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="D73" s="77" t="s">
+        <v>177</v>
+      </c>
+      <c r="E73" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="F73" s="25" t="s">
+      <c r="F73" s="79" t="s">
         <v>341</v>
       </c>
-      <c r="G73" s="26">
-        <v>2019.0</v>
-      </c>
-      <c r="H73" s="44" t="s">
+      <c r="G73" s="80">
+        <v>1984.0</v>
+      </c>
+      <c r="H73" s="81" t="s">
         <v>342</v>
       </c>
-      <c r="I73" s="98" t="s">
-        <v>343</v>
+      <c r="I73" s="26" t="s">
+        <v>64</v>
       </c>
       <c r="J73" s="23" t="s">
         <v>37</v>
@@ -6158,56 +6154,54 @@
         <v>45260.0</v>
       </c>
       <c r="L73" s="96">
-        <v>0.7916666666666666</v>
+        <v>0.8958333333333334</v>
       </c>
       <c r="M73" s="32"/>
       <c r="N73" s="33"/>
       <c r="O73" s="39"/>
-      <c r="P73" s="88" t="s">
-        <v>344</v>
-      </c>
+      <c r="P73" s="27"/>
       <c r="Q73" s="22"/>
       <c r="R73" s="34" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="41" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B74" s="6">
         <f t="shared" si="1"/>
-        <v>442</v>
+        <v>476</v>
       </c>
       <c r="C74" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="D74" s="77" t="s">
-        <v>177</v>
-      </c>
-      <c r="E74" s="78" t="s">
+        <v>67</v>
+      </c>
+      <c r="D74" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E74" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="F74" s="79" t="s">
+      <c r="F74" s="25" t="s">
+        <v>344</v>
+      </c>
+      <c r="G74" s="26">
+        <v>1956.0</v>
+      </c>
+      <c r="H74" s="47" t="s">
+        <v>345</v>
+      </c>
+      <c r="I74" s="26" t="s">
         <v>346</v>
-      </c>
-      <c r="G74" s="80">
-        <v>1984.0</v>
-      </c>
-      <c r="H74" s="81" t="s">
-        <v>347</v>
-      </c>
-      <c r="I74" s="26" t="s">
-        <v>64</v>
       </c>
       <c r="J74" s="23" t="s">
         <v>37</v>
       </c>
       <c r="K74" s="30">
-        <v>45260.0</v>
+        <v>45261.0</v>
       </c>
       <c r="L74" s="96">
-        <v>0.8958333333333334</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="M74" s="32"/>
       <c r="N74" s="33"/>
@@ -6215,19 +6209,19 @@
       <c r="P74" s="27"/>
       <c r="Q74" s="22"/>
       <c r="R74" s="34" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="41" t="s">
-        <v>348</v>
+      <c r="A75" s="82" t="s">
+        <v>347</v>
       </c>
       <c r="B75" s="6">
         <f t="shared" si="1"/>
-        <v>476</v>
+        <v>456</v>
       </c>
       <c r="C75" s="22" t="s">
-        <v>67</v>
+        <v>348</v>
       </c>
       <c r="D75" s="22" t="s">
         <v>33</v>
@@ -6238,78 +6232,84 @@
       <c r="F75" s="25" t="s">
         <v>349</v>
       </c>
-      <c r="G75" s="26">
-        <v>1956.0</v>
-      </c>
-      <c r="H75" s="47" t="s">
+      <c r="G75" s="26" t="s">
         <v>350</v>
       </c>
+      <c r="H75" s="100" t="s">
+        <v>351</v>
+      </c>
       <c r="I75" s="26" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="J75" s="23" t="s">
-        <v>37</v>
+        <v>353</v>
       </c>
       <c r="K75" s="30">
-        <v>45261.0</v>
-      </c>
-      <c r="L75" s="96">
-        <v>0.7916666666666666</v>
+        <v>45262.0</v>
+      </c>
+      <c r="L75" s="38">
+        <v>0.5833333333333334</v>
       </c>
       <c r="M75" s="32"/>
       <c r="N75" s="33"/>
-      <c r="O75" s="39"/>
-      <c r="P75" s="27"/>
+      <c r="O75" s="24" t="s">
+        <v>354</v>
+      </c>
+      <c r="P75" s="27" t="s">
+        <v>355</v>
+      </c>
       <c r="Q75" s="22"/>
       <c r="R75" s="34" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="82" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="B76" s="6">
         <f t="shared" si="1"/>
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="C76" s="22" t="s">
-        <v>353</v>
+        <v>33</v>
       </c>
       <c r="D76" s="22" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="E76" s="24" t="s">
         <v>27</v>
       </c>
       <c r="F76" s="25" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="G76" s="26">
-        <v>1964.0</v>
-      </c>
-      <c r="H76" s="100" t="s">
-        <v>355</v>
+        <v>1987.0</v>
+      </c>
+      <c r="H76" s="66" t="s">
+        <v>358</v>
       </c>
       <c r="I76" s="26" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="J76" s="23" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="K76" s="30">
         <v>45262.0</v>
       </c>
-      <c r="L76" s="38">
-        <v>0.5833333333333334</v>
-      </c>
-      <c r="M76" s="32"/>
-      <c r="N76" s="33"/>
-      <c r="O76" s="24" t="s">
-        <v>357</v>
-      </c>
-      <c r="P76" s="27" t="s">
-        <v>358</v>
+      <c r="L76" s="96">
+        <v>0.7916666666666666</v>
+      </c>
+      <c r="M76" s="56">
+        <v>45263.0</v>
+      </c>
+      <c r="N76" s="31">
+        <v>0.625</v>
+      </c>
+      <c r="O76" s="39"/>
+      <c r="P76" s="88" t="s">
+        <v>360</v>
       </c>
       <c r="Q76" s="22"/>
       <c r="R76" s="34" t="s">
@@ -6317,494 +6317,73 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="82" t="s">
-        <v>359</v>
+      <c r="A77" s="41" t="s">
+        <v>361</v>
       </c>
       <c r="B77" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>458</v>
       </c>
       <c r="C77" s="22" t="s">
-        <v>353</v>
+        <v>54</v>
       </c>
       <c r="D77" s="22" t="s">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="E77" s="24" t="s">
         <v>27</v>
       </c>
       <c r="F77" s="25" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="G77" s="26">
-        <v>1964.0</v>
-      </c>
-      <c r="H77" s="100"/>
+        <v>1982.0</v>
+      </c>
+      <c r="H77" s="66" t="s">
+        <v>363</v>
+      </c>
       <c r="I77" s="26" t="s">
-        <v>130</v>
+        <v>248</v>
       </c>
       <c r="J77" s="23" t="s">
         <v>37</v>
       </c>
       <c r="K77" s="30">
-        <v>45262.0</v>
-      </c>
-      <c r="L77" s="38"/>
+        <v>45263.0</v>
+      </c>
+      <c r="L77" s="96">
+        <v>0.7708333333333334</v>
+      </c>
       <c r="M77" s="32"/>
       <c r="N77" s="33"/>
       <c r="O77" s="39"/>
       <c r="P77" s="27"/>
       <c r="Q77" s="22"/>
       <c r="R77" s="34" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="82" t="s">
-        <v>360</v>
-      </c>
-      <c r="B78" s="6">
-        <f t="shared" si="1"/>
-        <v>446</v>
-      </c>
-      <c r="C78" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="D78" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="E78" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="F78" s="25" t="s">
-        <v>361</v>
-      </c>
-      <c r="G78" s="26">
-        <v>1987.0</v>
-      </c>
-      <c r="H78" s="66" t="s">
-        <v>362</v>
-      </c>
-      <c r="I78" s="26" t="s">
-        <v>363</v>
-      </c>
-      <c r="J78" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="K78" s="30">
-        <v>45262.0</v>
-      </c>
-      <c r="L78" s="96">
-        <v>0.7916666666666666</v>
-      </c>
-      <c r="M78" s="56">
-        <v>45263.0</v>
-      </c>
-      <c r="N78" s="31">
-        <v>0.625</v>
-      </c>
-      <c r="O78" s="39"/>
-      <c r="P78" s="88" t="s">
-        <v>364</v>
-      </c>
-      <c r="Q78" s="22"/>
-      <c r="R78" s="34" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="41" t="s">
-        <v>365</v>
-      </c>
-      <c r="B79" s="6">
-        <f t="shared" si="1"/>
-        <v>458</v>
-      </c>
-      <c r="C79" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="D79" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="E79" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="F79" s="25" t="s">
-        <v>366</v>
-      </c>
-      <c r="G79" s="26">
-        <v>1982.0</v>
-      </c>
-      <c r="H79" s="66" t="s">
-        <v>367</v>
-      </c>
-      <c r="I79" s="26" t="s">
-        <v>248</v>
-      </c>
-      <c r="J79" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="K79" s="30">
-        <v>45263.0</v>
-      </c>
-      <c r="L79" s="96">
-        <v>0.7708333333333334</v>
-      </c>
-      <c r="M79" s="32"/>
-      <c r="N79" s="33"/>
-      <c r="O79" s="39"/>
-      <c r="P79" s="27"/>
-      <c r="Q79" s="22"/>
-      <c r="R79" s="34" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="41"/>
-      <c r="B80" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C80" s="22"/>
-      <c r="D80" s="22"/>
-      <c r="E80" s="24"/>
-      <c r="F80" s="25"/>
-      <c r="G80" s="26"/>
-      <c r="H80" s="66"/>
-      <c r="I80" s="26"/>
-      <c r="J80" s="23"/>
-      <c r="K80" s="101"/>
-      <c r="L80" s="102"/>
-      <c r="M80" s="32"/>
-      <c r="N80" s="33"/>
-      <c r="O80" s="39"/>
-      <c r="P80" s="27"/>
-      <c r="Q80" s="22"/>
-      <c r="R80" s="34"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="41"/>
-      <c r="B81" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C81" s="22"/>
-      <c r="D81" s="22"/>
-      <c r="E81" s="24"/>
-      <c r="F81" s="25"/>
-      <c r="G81" s="26"/>
-      <c r="H81" s="66"/>
-      <c r="I81" s="26"/>
-      <c r="J81" s="23"/>
-      <c r="K81" s="101"/>
-      <c r="L81" s="102"/>
-      <c r="M81" s="32"/>
-      <c r="N81" s="33"/>
-      <c r="O81" s="39"/>
-      <c r="P81" s="27"/>
-      <c r="Q81" s="22"/>
-      <c r="R81" s="34"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="41"/>
-      <c r="B82" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C82" s="22"/>
-      <c r="D82" s="22"/>
-      <c r="E82" s="24"/>
-      <c r="F82" s="25"/>
-      <c r="G82" s="26"/>
-      <c r="H82" s="66"/>
-      <c r="I82" s="26"/>
-      <c r="J82" s="23"/>
-      <c r="K82" s="101"/>
-      <c r="L82" s="102"/>
-      <c r="M82" s="32"/>
-      <c r="N82" s="33"/>
-      <c r="O82" s="39"/>
-      <c r="P82" s="27"/>
-      <c r="Q82" s="22"/>
-      <c r="R82" s="34"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="41"/>
-      <c r="B83" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C83" s="22"/>
-      <c r="D83" s="22"/>
-      <c r="E83" s="24"/>
-      <c r="F83" s="25"/>
-      <c r="G83" s="26"/>
-      <c r="H83" s="66"/>
-      <c r="I83" s="26"/>
-      <c r="J83" s="23"/>
-      <c r="K83" s="101"/>
-      <c r="L83" s="102"/>
-      <c r="M83" s="32"/>
-      <c r="N83" s="33"/>
-      <c r="O83" s="39"/>
-      <c r="P83" s="27"/>
-      <c r="Q83" s="22"/>
-      <c r="R83" s="34"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="41"/>
-      <c r="B84" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C84" s="22"/>
-      <c r="D84" s="22"/>
-      <c r="E84" s="24"/>
-      <c r="F84" s="25"/>
-      <c r="G84" s="26"/>
-      <c r="H84" s="66"/>
-      <c r="I84" s="26"/>
-      <c r="J84" s="23"/>
-      <c r="K84" s="101"/>
-      <c r="L84" s="102"/>
-      <c r="M84" s="32"/>
-      <c r="N84" s="33"/>
-      <c r="O84" s="39"/>
-      <c r="P84" s="27"/>
-      <c r="Q84" s="22"/>
-      <c r="R84" s="34"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="41"/>
-      <c r="B85" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C85" s="22"/>
-      <c r="D85" s="22"/>
-      <c r="E85" s="24"/>
-      <c r="F85" s="25"/>
-      <c r="G85" s="26"/>
-      <c r="H85" s="66"/>
-      <c r="I85" s="26"/>
-      <c r="J85" s="23"/>
-      <c r="K85" s="101"/>
-      <c r="L85" s="102"/>
-      <c r="M85" s="32"/>
-      <c r="N85" s="33"/>
-      <c r="O85" s="39"/>
-      <c r="P85" s="27"/>
-      <c r="Q85" s="22"/>
-      <c r="R85" s="34"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="41"/>
-      <c r="B86" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C86" s="22"/>
-      <c r="D86" s="22"/>
-      <c r="E86" s="24"/>
-      <c r="F86" s="25"/>
-      <c r="G86" s="26"/>
-      <c r="H86" s="66"/>
-      <c r="I86" s="26"/>
-      <c r="J86" s="23"/>
-      <c r="K86" s="101"/>
-      <c r="L86" s="102"/>
-      <c r="M86" s="32"/>
-      <c r="N86" s="33"/>
-      <c r="O86" s="39"/>
-      <c r="P86" s="27"/>
-      <c r="Q86" s="22"/>
-      <c r="R86" s="34"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="41"/>
-      <c r="B87" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C87" s="22"/>
-      <c r="D87" s="22"/>
-      <c r="E87" s="24"/>
-      <c r="F87" s="25"/>
-      <c r="G87" s="26"/>
-      <c r="H87" s="66"/>
-      <c r="I87" s="26"/>
-      <c r="J87" s="23"/>
-      <c r="K87" s="101"/>
-      <c r="L87" s="102"/>
-      <c r="M87" s="32"/>
-      <c r="N87" s="33"/>
-      <c r="O87" s="39"/>
-      <c r="P87" s="27"/>
-      <c r="Q87" s="22"/>
-      <c r="R87" s="34"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="41"/>
-      <c r="B88" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C88" s="22"/>
-      <c r="D88" s="22"/>
-      <c r="E88" s="24"/>
-      <c r="F88" s="25"/>
-      <c r="G88" s="26"/>
-      <c r="H88" s="66"/>
-      <c r="I88" s="26"/>
-      <c r="J88" s="23"/>
-      <c r="K88" s="101"/>
-      <c r="L88" s="102"/>
-      <c r="M88" s="32"/>
-      <c r="N88" s="33"/>
-      <c r="O88" s="39"/>
-      <c r="P88" s="27"/>
-      <c r="Q88" s="22"/>
-      <c r="R88" s="34"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="41"/>
-      <c r="B89" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C89" s="22"/>
-      <c r="D89" s="22"/>
-      <c r="E89" s="24"/>
-      <c r="F89" s="25"/>
-      <c r="G89" s="26"/>
-      <c r="H89" s="66"/>
-      <c r="I89" s="26"/>
-      <c r="J89" s="23"/>
-      <c r="K89" s="101"/>
-      <c r="L89" s="102"/>
-      <c r="M89" s="32"/>
-      <c r="N89" s="33"/>
-      <c r="O89" s="39"/>
-      <c r="P89" s="27"/>
-      <c r="Q89" s="22"/>
-      <c r="R89" s="34"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="41"/>
-      <c r="B90" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C90" s="22"/>
-      <c r="D90" s="22"/>
-      <c r="E90" s="24"/>
-      <c r="F90" s="25"/>
-      <c r="G90" s="26"/>
-      <c r="H90" s="66"/>
-      <c r="I90" s="26"/>
-      <c r="J90" s="23"/>
-      <c r="K90" s="101"/>
-      <c r="L90" s="102"/>
-      <c r="M90" s="32"/>
-      <c r="N90" s="33"/>
-      <c r="O90" s="39"/>
-      <c r="P90" s="27"/>
-      <c r="Q90" s="22"/>
-      <c r="R90" s="34"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="41"/>
-      <c r="B91" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C91" s="22"/>
-      <c r="D91" s="22"/>
-      <c r="E91" s="24"/>
-      <c r="F91" s="25"/>
-      <c r="G91" s="26"/>
-      <c r="H91" s="66"/>
-      <c r="I91" s="26"/>
-      <c r="J91" s="23"/>
-      <c r="K91" s="101"/>
-      <c r="L91" s="102"/>
-      <c r="M91" s="32"/>
-      <c r="N91" s="33"/>
-      <c r="O91" s="39"/>
-      <c r="P91" s="27"/>
-      <c r="Q91" s="22"/>
-      <c r="R91" s="34"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="41"/>
-      <c r="B92" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C92" s="22"/>
-      <c r="D92" s="22"/>
-      <c r="E92" s="24"/>
-      <c r="F92" s="25"/>
-      <c r="G92" s="26"/>
-      <c r="H92" s="66"/>
-      <c r="I92" s="26"/>
-      <c r="J92" s="23"/>
-      <c r="K92" s="101"/>
-      <c r="L92" s="102"/>
-      <c r="M92" s="32"/>
-      <c r="N92" s="33"/>
-      <c r="O92" s="39"/>
-      <c r="P92" s="27"/>
-      <c r="Q92" s="22"/>
-      <c r="R92" s="34"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="41"/>
-      <c r="B93" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C93" s="22"/>
-      <c r="D93" s="22"/>
-      <c r="E93" s="24"/>
-      <c r="F93" s="25"/>
-      <c r="G93" s="26"/>
-      <c r="H93" s="66"/>
-      <c r="I93" s="26"/>
-      <c r="J93" s="23"/>
-      <c r="K93" s="101"/>
-      <c r="L93" s="102"/>
-      <c r="M93" s="32"/>
-      <c r="N93" s="33"/>
-      <c r="O93" s="39"/>
-      <c r="P93" s="27"/>
-      <c r="Q93" s="22"/>
-      <c r="R93" s="34"/>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{9985D1F3-6FD3-43D9-9719-C72089C412B0}" filter="1" showAutoFilter="1">
-      <autoFilter ref="$A$1:$R$93"/>
+    <customSheetView guid="{4909E768-953F-41D0-A760-0A22D058F2BC}" filter="1" showAutoFilter="1">
+      <autoFilter ref="$A$1:$R$77"/>
     </customSheetView>
-    <customSheetView guid="{C682B7EC-BBEF-496F-86D0-1C1FD7F91C48}" filter="1" showAutoFilter="1">
-      <autoFilter ref="$R$1:$R$79">
+    <customSheetView guid="{A35D790B-FEB4-4D5C-91F2-574379E3F185}" filter="1" showAutoFilter="1">
+      <autoFilter ref="$R$1:$R$77">
         <filterColumn colId="0">
           <filters>
-            <filter val="SE"/>
-            <filter val="NR"/>
             <filter val="Monday"/>
             <filter val="Sunday"/>
-            <filter val="XXX"/>
             <filter val="Tuesday"/>
           </filters>
         </filterColumn>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{6D0229D4-6CE7-4120-AF90-B69F540531EB}" filter="1" showAutoFilter="1">
-      <autoFilter ref="$A$1:$R$93"/>
+    <customSheetView guid="{9D661EC4-D0A0-43EA-986D-1A5BD471CA74}" filter="1" showAutoFilter="1">
+      <autoFilter ref="$A$1:$R$77"/>
     </customSheetView>
   </customSheetViews>
-  <conditionalFormatting sqref="E2:E93">
+  <conditionalFormatting sqref="E2:E77">
     <cfRule type="notContainsText" dxfId="0" priority="1" operator="notContains" text="y">
       <formula>ISERROR(SEARCH(("y"),(E2)))</formula>
     </cfRule>
@@ -6814,17 +6393,17 @@
       <formula>ISERROR(SEARCH(("y"),(E21)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B93">
+  <conditionalFormatting sqref="B2:B77">
     <cfRule type="cellIs" dxfId="1" priority="3" operator="lessThan">
       <formula>440</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B93">
+  <conditionalFormatting sqref="B2:B77">
     <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThan">
       <formula>460</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E93">
+  <conditionalFormatting sqref="E2:E77">
     <cfRule type="containsText" dxfId="3" priority="5" operator="containsText" text="y">
       <formula>NOT(ISERROR(SEARCH(("y"),(E2))))</formula>
     </cfRule>
@@ -6834,13 +6413,13 @@
       <formula>NOT(ISERROR(SEARCH(("y"),(E21))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B93">
+  <conditionalFormatting sqref="B2:B77">
     <cfRule type="cellIs" dxfId="3" priority="7" operator="between">
       <formula>440</formula>
       <formula>460</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:G93 I1:I93">
+  <conditionalFormatting sqref="F1:G77 I1:I77">
     <cfRule type="containsBlanks" dxfId="0" priority="8">
       <formula>LEN(TRIM(F1))=0</formula>
     </cfRule>
@@ -6885,33 +6464,33 @@
   <sheetData>
     <row r="1" ht="33.75" customHeight="1">
       <c r="A1" s="4" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="D1" s="103" t="s">
+        <v>366</v>
+      </c>
+      <c r="D1" s="101" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="103" t="s">
+      <c r="E1" s="101" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>17</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103"/>
+        <v>368</v>
+      </c>
+      <c r="I1" s="101"/>
+      <c r="J1" s="101"/>
       <c r="K1" s="4"/>
-      <c r="L1" s="104"/>
+      <c r="L1" s="102"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
@@ -6921,1976 +6500,1998 @@
       <c r="S1" s="4"/>
     </row>
     <row r="2" ht="65.25" customHeight="1">
-      <c r="A2" s="105" t="s">
-        <v>373</v>
-      </c>
-      <c r="B2" s="106">
+      <c r="A2" s="103" t="s">
+        <v>369</v>
+      </c>
+      <c r="B2" s="104">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(F2="""","""",COUNTA(SPLIT(F2,"" "")))"),105.0)</f>
         <v>105</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="D2" s="107" t="s">
-        <v>375</v>
+        <v>370</v>
+      </c>
+      <c r="D2" s="105" t="s">
+        <v>371</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="108" t="s">
-        <v>376</v>
-      </c>
-      <c r="G2" s="109" t="s">
+      <c r="F2" s="106" t="s">
+        <v>372</v>
+      </c>
+      <c r="G2" s="107" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="110" t="s">
-        <v>377</v>
-      </c>
-      <c r="I2" s="109"/>
-      <c r="J2" s="105"/>
-      <c r="K2" s="111"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="113"/>
-      <c r="N2" s="113"/>
-      <c r="O2" s="113"/>
-      <c r="P2" s="113"/>
-      <c r="Q2" s="114"/>
-      <c r="R2" s="115"/>
-      <c r="S2" s="115"/>
+      <c r="H2" s="108" t="s">
+        <v>373</v>
+      </c>
+      <c r="I2" s="107"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="109"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="112"/>
+      <c r="R2" s="113"/>
+      <c r="S2" s="113"/>
     </row>
     <row r="3">
-      <c r="A3" s="116" t="s">
-        <v>378</v>
-      </c>
-      <c r="B3" s="106"/>
+      <c r="A3" s="114" t="s">
+        <v>374</v>
+      </c>
+      <c r="B3" s="104"/>
       <c r="C3" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="D3" s="117" t="s">
-        <v>379</v>
+      <c r="D3" s="115" t="s">
+        <v>375</v>
       </c>
       <c r="E3" s="22" t="s">
         <v>27</v>
       </c>
       <c r="F3" s="47" t="s">
-        <v>380</v>
-      </c>
-      <c r="G3" s="118"/>
+        <v>376</v>
+      </c>
+      <c r="G3" s="116" t="s">
+        <v>95</v>
+      </c>
       <c r="H3" s="84" t="s">
-        <v>381</v>
-      </c>
-      <c r="I3" s="118"/>
-      <c r="J3" s="117"/>
-      <c r="K3" s="119"/>
-      <c r="L3" s="120"/>
-      <c r="M3" s="121"/>
-      <c r="N3" s="122"/>
-      <c r="O3" s="123"/>
-      <c r="P3" s="124"/>
-      <c r="Q3" s="125"/>
-      <c r="R3" s="126"/>
-      <c r="S3" s="126"/>
+        <v>377</v>
+      </c>
+      <c r="I3" s="116"/>
+      <c r="J3" s="115"/>
+      <c r="K3" s="117"/>
+      <c r="L3" s="118"/>
+      <c r="M3" s="119"/>
+      <c r="N3" s="120"/>
+      <c r="O3" s="121"/>
+      <c r="P3" s="122"/>
+      <c r="Q3" s="123"/>
+      <c r="R3" s="124"/>
+      <c r="S3" s="124"/>
     </row>
     <row r="4">
-      <c r="A4" s="127" t="s">
-        <v>382</v>
-      </c>
-      <c r="B4" s="106"/>
+      <c r="A4" s="125" t="s">
+        <v>378</v>
+      </c>
+      <c r="B4" s="104"/>
       <c r="C4" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="117"/>
+      <c r="D4" s="115"/>
       <c r="E4" s="22" t="s">
         <v>27</v>
       </c>
       <c r="F4" s="47" t="s">
-        <v>383</v>
-      </c>
-      <c r="G4" s="118"/>
+        <v>379</v>
+      </c>
+      <c r="G4" s="116" t="s">
+        <v>45</v>
+      </c>
       <c r="H4" s="84" t="s">
-        <v>384</v>
-      </c>
-      <c r="I4" s="118"/>
-      <c r="J4" s="117"/>
-      <c r="K4" s="119"/>
-      <c r="L4" s="120"/>
-      <c r="M4" s="121"/>
-      <c r="N4" s="122"/>
-      <c r="O4" s="128"/>
-      <c r="P4" s="124"/>
-      <c r="Q4" s="129"/>
-      <c r="R4" s="129"/>
+        <v>380</v>
+      </c>
+      <c r="I4" s="116"/>
+      <c r="J4" s="115"/>
+      <c r="K4" s="117"/>
+      <c r="L4" s="118"/>
+      <c r="M4" s="119"/>
+      <c r="N4" s="120"/>
+      <c r="O4" s="126"/>
+      <c r="P4" s="122"/>
+      <c r="Q4" s="127"/>
+      <c r="R4" s="127"/>
       <c r="S4" s="89"/>
     </row>
     <row r="5">
       <c r="A5" s="70" t="s">
-        <v>385</v>
-      </c>
-      <c r="B5" s="106"/>
+        <v>381</v>
+      </c>
+      <c r="B5" s="104"/>
       <c r="C5" s="22" t="s">
-        <v>386</v>
-      </c>
-      <c r="D5" s="130" t="s">
+        <v>382</v>
+      </c>
+      <c r="D5" s="128" t="s">
         <v>33</v>
       </c>
       <c r="E5" s="22" t="s">
         <v>27</v>
       </c>
       <c r="F5" s="47" t="s">
-        <v>387</v>
-      </c>
-      <c r="G5" s="118"/>
-      <c r="H5" s="131" t="s">
-        <v>388</v>
-      </c>
-      <c r="I5" s="118"/>
-      <c r="J5" s="117"/>
-      <c r="K5" s="119"/>
-      <c r="L5" s="120"/>
-      <c r="M5" s="121"/>
-      <c r="N5" s="122"/>
-      <c r="O5" s="128"/>
-      <c r="P5" s="124"/>
-      <c r="Q5" s="129"/>
-      <c r="R5" s="129"/>
+        <v>383</v>
+      </c>
+      <c r="G5" s="116" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" s="129" t="s">
+        <v>384</v>
+      </c>
+      <c r="I5" s="116"/>
+      <c r="J5" s="115"/>
+      <c r="K5" s="117"/>
+      <c r="L5" s="118"/>
+      <c r="M5" s="119"/>
+      <c r="N5" s="120"/>
+      <c r="O5" s="126"/>
+      <c r="P5" s="122"/>
+      <c r="Q5" s="127"/>
+      <c r="R5" s="127"/>
       <c r="S5" s="89"/>
     </row>
     <row r="6">
-      <c r="A6" s="127" t="s">
-        <v>389</v>
-      </c>
-      <c r="B6" s="106"/>
+      <c r="A6" s="125" t="s">
+        <v>385</v>
+      </c>
+      <c r="B6" s="104"/>
       <c r="C6" s="42" t="s">
         <v>54</v>
       </c>
       <c r="D6" s="42" t="s">
-        <v>390</v>
-      </c>
-      <c r="E6" s="132" t="s">
+        <v>386</v>
+      </c>
+      <c r="E6" s="130" t="s">
         <v>27</v>
       </c>
       <c r="F6" s="47" t="s">
-        <v>391</v>
-      </c>
-      <c r="G6" s="133"/>
+        <v>387</v>
+      </c>
+      <c r="G6" s="131" t="s">
+        <v>59</v>
+      </c>
       <c r="H6" s="22" t="s">
-        <v>392</v>
-      </c>
-      <c r="I6" s="133"/>
-      <c r="J6" s="134"/>
-      <c r="K6" s="119"/>
-      <c r="L6" s="135"/>
-      <c r="M6" s="121"/>
-      <c r="N6" s="122"/>
-      <c r="O6" s="136"/>
-      <c r="P6" s="124"/>
-      <c r="Q6" s="129"/>
+        <v>388</v>
+      </c>
+      <c r="I6" s="131"/>
+      <c r="J6" s="132"/>
+      <c r="K6" s="117"/>
+      <c r="L6" s="133"/>
+      <c r="M6" s="119"/>
+      <c r="N6" s="120"/>
+      <c r="O6" s="134"/>
+      <c r="P6" s="122"/>
+      <c r="Q6" s="127"/>
       <c r="R6" s="89"/>
       <c r="S6" s="89"/>
     </row>
     <row r="7">
-      <c r="A7" s="116" t="s">
-        <v>393</v>
-      </c>
-      <c r="B7" s="106"/>
+      <c r="A7" s="114" t="s">
+        <v>389</v>
+      </c>
+      <c r="B7" s="104"/>
       <c r="C7" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="D7" s="117" t="s">
-        <v>394</v>
+      <c r="D7" s="115" t="s">
+        <v>390</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F7" s="47" t="s">
-        <v>396</v>
-      </c>
-      <c r="G7" s="118"/>
+        <v>392</v>
+      </c>
+      <c r="G7" s="116" t="s">
+        <v>65</v>
+      </c>
       <c r="H7" s="84" t="s">
-        <v>397</v>
-      </c>
-      <c r="I7" s="118"/>
-      <c r="J7" s="137"/>
-      <c r="K7" s="119"/>
-      <c r="L7" s="135"/>
-      <c r="M7" s="121"/>
-      <c r="N7" s="122"/>
-      <c r="O7" s="136"/>
-      <c r="P7" s="124"/>
-      <c r="Q7" s="138"/>
+        <v>393</v>
+      </c>
+      <c r="I7" s="116"/>
+      <c r="J7" s="135"/>
+      <c r="K7" s="117"/>
+      <c r="L7" s="133"/>
+      <c r="M7" s="119"/>
+      <c r="N7" s="120"/>
+      <c r="O7" s="134"/>
+      <c r="P7" s="122"/>
+      <c r="Q7" s="136"/>
       <c r="R7" s="89"/>
       <c r="S7" s="89"/>
     </row>
     <row r="8">
-      <c r="A8" s="116" t="s">
-        <v>398</v>
-      </c>
-      <c r="B8" s="106"/>
+      <c r="A8" s="114" t="s">
+        <v>394</v>
+      </c>
+      <c r="B8" s="104"/>
       <c r="C8" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="D8" s="117" t="s">
+      <c r="D8" s="115" t="s">
         <v>33</v>
       </c>
       <c r="E8" s="22" t="s">
         <v>27</v>
       </c>
       <c r="F8" s="47" t="s">
-        <v>399</v>
-      </c>
-      <c r="G8" s="118"/>
+        <v>395</v>
+      </c>
+      <c r="G8" s="116" t="s">
+        <v>70</v>
+      </c>
       <c r="H8" s="84" t="s">
-        <v>400</v>
-      </c>
-      <c r="I8" s="118"/>
-      <c r="J8" s="137"/>
-      <c r="K8" s="119"/>
-      <c r="L8" s="135"/>
-      <c r="M8" s="121"/>
-      <c r="N8" s="122"/>
-      <c r="O8" s="136"/>
-      <c r="P8" s="124"/>
-      <c r="Q8" s="138"/>
+        <v>396</v>
+      </c>
+      <c r="I8" s="116"/>
+      <c r="J8" s="135"/>
+      <c r="K8" s="117"/>
+      <c r="L8" s="133"/>
+      <c r="M8" s="119"/>
+      <c r="N8" s="120"/>
+      <c r="O8" s="134"/>
+      <c r="P8" s="122"/>
+      <c r="Q8" s="136"/>
       <c r="R8" s="89"/>
       <c r="S8" s="89"/>
     </row>
     <row r="9">
-      <c r="A9" s="116" t="s">
-        <v>401</v>
-      </c>
-      <c r="B9" s="106"/>
+      <c r="A9" s="114" t="s">
+        <v>397</v>
+      </c>
+      <c r="B9" s="104"/>
       <c r="C9" s="22"/>
-      <c r="D9" s="117"/>
+      <c r="D9" s="115"/>
       <c r="E9" s="22"/>
-      <c r="F9" s="139"/>
-      <c r="G9" s="118"/>
+      <c r="F9" s="137" t="s">
+        <v>398</v>
+      </c>
+      <c r="G9" s="116" t="s">
+        <v>82</v>
+      </c>
       <c r="H9" s="84"/>
-      <c r="I9" s="118"/>
-      <c r="J9" s="137"/>
-      <c r="K9" s="119"/>
-      <c r="L9" s="135"/>
-      <c r="M9" s="121"/>
-      <c r="N9" s="122"/>
-      <c r="O9" s="136"/>
-      <c r="P9" s="124"/>
-      <c r="Q9" s="138"/>
-      <c r="R9" s="138"/>
-      <c r="S9" s="138"/>
+      <c r="I9" s="116"/>
+      <c r="J9" s="135"/>
+      <c r="K9" s="117"/>
+      <c r="L9" s="133"/>
+      <c r="M9" s="119"/>
+      <c r="N9" s="120"/>
+      <c r="O9" s="134"/>
+      <c r="P9" s="122"/>
+      <c r="Q9" s="136"/>
+      <c r="R9" s="136"/>
+      <c r="S9" s="136"/>
     </row>
     <row r="10">
-      <c r="A10" s="116" t="s">
-        <v>402</v>
-      </c>
-      <c r="B10" s="106">
+      <c r="A10" s="114" t="s">
+        <v>399</v>
+      </c>
+      <c r="B10" s="104">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(F10="""","""",COUNTA(SPLIT(F10,"" "")))"),187.0)</f>
         <v>187</v>
       </c>
       <c r="C10" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="117" t="s">
+      <c r="D10" s="115" t="s">
         <v>116</v>
       </c>
       <c r="E10" s="22" t="s">
         <v>27</v>
       </c>
       <c r="F10" s="47" t="s">
-        <v>403</v>
-      </c>
-      <c r="G10" s="118" t="s">
-        <v>404</v>
-      </c>
-      <c r="H10" s="84"/>
-      <c r="I10" s="118"/>
-      <c r="J10" s="137"/>
-      <c r="K10" s="119"/>
-      <c r="L10" s="120"/>
-      <c r="M10" s="121"/>
-      <c r="N10" s="122"/>
-      <c r="O10" s="136"/>
-      <c r="P10" s="124"/>
-      <c r="Q10" s="138"/>
-      <c r="R10" s="138"/>
-      <c r="S10" s="138"/>
+        <v>400</v>
+      </c>
+      <c r="G10" s="116" t="s">
+        <v>89</v>
+      </c>
+      <c r="H10" s="116" t="s">
+        <v>401</v>
+      </c>
+      <c r="I10" s="116"/>
+      <c r="J10" s="135"/>
+      <c r="K10" s="117"/>
+      <c r="L10" s="118"/>
+      <c r="M10" s="119"/>
+      <c r="N10" s="120"/>
+      <c r="O10" s="134"/>
+      <c r="P10" s="122"/>
+      <c r="Q10" s="136"/>
+      <c r="R10" s="136"/>
+      <c r="S10" s="136"/>
     </row>
     <row r="11">
-      <c r="A11" s="116"/>
-      <c r="B11" s="106" t="str">
+      <c r="A11" s="114" t="s">
+        <v>402</v>
+      </c>
+      <c r="B11" s="104" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(F11="""","""",COUNTA(SPLIT(F11,"" "")))"),"")</f>
         <v/>
       </c>
       <c r="C11" s="22"/>
-      <c r="D11" s="117"/>
+      <c r="D11" s="115"/>
       <c r="E11" s="22"/>
-      <c r="F11" s="139"/>
-      <c r="G11" s="118"/>
-      <c r="H11" s="131"/>
-      <c r="I11" s="118"/>
-      <c r="J11" s="137"/>
-      <c r="K11" s="119"/>
-      <c r="L11" s="120"/>
-      <c r="M11" s="140"/>
-      <c r="N11" s="122"/>
-      <c r="O11" s="123"/>
-      <c r="P11" s="120"/>
-      <c r="Q11" s="129"/>
-      <c r="R11" s="129"/>
+      <c r="F11" s="137"/>
+      <c r="G11" s="116" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="129"/>
+      <c r="I11" s="116"/>
+      <c r="J11" s="135"/>
+      <c r="K11" s="117"/>
+      <c r="L11" s="118"/>
+      <c r="M11" s="138"/>
+      <c r="N11" s="120"/>
+      <c r="O11" s="121"/>
+      <c r="P11" s="118"/>
+      <c r="Q11" s="127"/>
+      <c r="R11" s="127"/>
       <c r="S11" s="89"/>
     </row>
     <row r="12">
-      <c r="A12" s="116"/>
-      <c r="B12" s="106" t="str">
+      <c r="A12" s="114"/>
+      <c r="B12" s="104" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(F12="""","""",COUNTA(SPLIT(F12,"" "")))"),"")</f>
         <v/>
       </c>
       <c r="C12" s="22"/>
-      <c r="D12" s="117"/>
+      <c r="D12" s="115"/>
       <c r="E12" s="22"/>
       <c r="F12" s="84"/>
-      <c r="G12" s="118"/>
-      <c r="H12" s="141"/>
-      <c r="I12" s="118"/>
-      <c r="J12" s="137"/>
-      <c r="K12" s="119"/>
-      <c r="L12" s="120"/>
-      <c r="M12" s="121"/>
-      <c r="N12" s="122"/>
-      <c r="O12" s="128"/>
-      <c r="P12" s="142"/>
-      <c r="Q12" s="126"/>
-      <c r="R12" s="126"/>
-      <c r="S12" s="126"/>
+      <c r="G12" s="116"/>
+      <c r="H12" s="139"/>
+      <c r="I12" s="116"/>
+      <c r="J12" s="135"/>
+      <c r="K12" s="117"/>
+      <c r="L12" s="118"/>
+      <c r="M12" s="119"/>
+      <c r="N12" s="120"/>
+      <c r="O12" s="126"/>
+      <c r="P12" s="140"/>
+      <c r="Q12" s="124"/>
+      <c r="R12" s="124"/>
+      <c r="S12" s="124"/>
     </row>
     <row r="13">
-      <c r="A13" s="116"/>
-      <c r="B13" s="106" t="str">
+      <c r="A13" s="114"/>
+      <c r="B13" s="104" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(F13="""","""",COUNTA(SPLIT(F13,"" "")))"),"")</f>
         <v/>
       </c>
       <c r="C13" s="22"/>
-      <c r="D13" s="117"/>
+      <c r="D13" s="115"/>
       <c r="E13" s="22"/>
-      <c r="F13" s="143"/>
-      <c r="G13" s="118"/>
+      <c r="F13" s="141"/>
+      <c r="G13" s="116"/>
       <c r="H13" s="84"/>
-      <c r="I13" s="118"/>
-      <c r="J13" s="137"/>
-      <c r="K13" s="119"/>
-      <c r="L13" s="120"/>
-      <c r="M13" s="121"/>
-      <c r="N13" s="122"/>
-      <c r="O13" s="128"/>
-      <c r="P13" s="124"/>
-      <c r="Q13" s="129"/>
-      <c r="R13" s="129"/>
+      <c r="I13" s="116"/>
+      <c r="J13" s="135"/>
+      <c r="K13" s="117"/>
+      <c r="L13" s="118"/>
+      <c r="M13" s="119"/>
+      <c r="N13" s="120"/>
+      <c r="O13" s="126"/>
+      <c r="P13" s="122"/>
+      <c r="Q13" s="127"/>
+      <c r="R13" s="127"/>
       <c r="S13" s="89"/>
     </row>
     <row r="14">
-      <c r="A14" s="127"/>
-      <c r="B14" s="106" t="str">
+      <c r="A14" s="125"/>
+      <c r="B14" s="104" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(F14="""","""",COUNTA(SPLIT(F14,"" "")))"),"")</f>
         <v/>
       </c>
       <c r="C14" s="22"/>
-      <c r="D14" s="117"/>
+      <c r="D14" s="115"/>
       <c r="E14" s="22"/>
-      <c r="F14" s="143"/>
-      <c r="G14" s="118"/>
+      <c r="F14" s="141"/>
+      <c r="G14" s="116"/>
       <c r="H14" s="84"/>
-      <c r="I14" s="118"/>
-      <c r="J14" s="137"/>
-      <c r="K14" s="119"/>
-      <c r="L14" s="120"/>
-      <c r="M14" s="121"/>
-      <c r="N14" s="122"/>
-      <c r="O14" s="128"/>
-      <c r="P14" s="124"/>
+      <c r="I14" s="116"/>
+      <c r="J14" s="135"/>
+      <c r="K14" s="117"/>
+      <c r="L14" s="118"/>
+      <c r="M14" s="119"/>
+      <c r="N14" s="120"/>
+      <c r="O14" s="126"/>
+      <c r="P14" s="122"/>
       <c r="Q14" s="89"/>
       <c r="R14" s="89"/>
       <c r="S14" s="89"/>
     </row>
     <row r="15" ht="18.0" customHeight="1">
-      <c r="A15" s="116"/>
-      <c r="B15" s="106" t="str">
+      <c r="A15" s="114"/>
+      <c r="B15" s="104" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(F15="""","""",COUNTA(SPLIT(F15,"" "")))"),"")</f>
         <v/>
       </c>
       <c r="C15" s="22"/>
-      <c r="D15" s="117"/>
+      <c r="D15" s="115"/>
       <c r="E15" s="22"/>
-      <c r="F15" s="143"/>
-      <c r="G15" s="118"/>
+      <c r="F15" s="141"/>
+      <c r="G15" s="116"/>
       <c r="H15" s="22"/>
-      <c r="I15" s="118"/>
-      <c r="J15" s="117"/>
-      <c r="K15" s="119"/>
-      <c r="L15" s="120"/>
-      <c r="M15" s="121"/>
-      <c r="N15" s="122"/>
-      <c r="O15" s="144"/>
-      <c r="P15" s="120"/>
-      <c r="Q15" s="129"/>
-      <c r="R15" s="129"/>
+      <c r="I15" s="116"/>
+      <c r="J15" s="115"/>
+      <c r="K15" s="117"/>
+      <c r="L15" s="118"/>
+      <c r="M15" s="119"/>
+      <c r="N15" s="120"/>
+      <c r="O15" s="142"/>
+      <c r="P15" s="118"/>
+      <c r="Q15" s="127"/>
+      <c r="R15" s="127"/>
       <c r="S15" s="89"/>
     </row>
     <row r="16">
-      <c r="A16" s="116"/>
-      <c r="B16" s="106" t="str">
+      <c r="A16" s="114"/>
+      <c r="B16" s="104" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(F16="""","""",COUNTA(SPLIT(F16,"" "")))"),"")</f>
         <v/>
       </c>
       <c r="C16" s="22"/>
-      <c r="D16" s="117"/>
+      <c r="D16" s="115"/>
       <c r="E16" s="22"/>
-      <c r="F16" s="143"/>
-      <c r="G16" s="118"/>
+      <c r="F16" s="141"/>
+      <c r="G16" s="116"/>
       <c r="H16" s="84"/>
-      <c r="I16" s="118"/>
-      <c r="J16" s="117"/>
-      <c r="K16" s="119"/>
-      <c r="L16" s="120"/>
-      <c r="M16" s="121"/>
-      <c r="N16" s="122"/>
-      <c r="O16" s="144"/>
-      <c r="P16" s="120"/>
-      <c r="Q16" s="129"/>
-      <c r="R16" s="129"/>
+      <c r="I16" s="116"/>
+      <c r="J16" s="115"/>
+      <c r="K16" s="117"/>
+      <c r="L16" s="118"/>
+      <c r="M16" s="119"/>
+      <c r="N16" s="120"/>
+      <c r="O16" s="142"/>
+      <c r="P16" s="118"/>
+      <c r="Q16" s="127"/>
+      <c r="R16" s="127"/>
       <c r="S16" s="89"/>
     </row>
     <row r="17">
-      <c r="A17" s="127"/>
-      <c r="B17" s="106" t="str">
+      <c r="A17" s="125"/>
+      <c r="B17" s="104" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(F17="""","""",COUNTA(SPLIT(F17,"" "")))"),"")</f>
         <v/>
       </c>
       <c r="C17" s="22"/>
-      <c r="D17" s="117"/>
+      <c r="D17" s="115"/>
       <c r="E17" s="22"/>
-      <c r="F17" s="139"/>
-      <c r="G17" s="118"/>
+      <c r="F17" s="137"/>
+      <c r="G17" s="116"/>
       <c r="H17" s="84"/>
-      <c r="I17" s="118"/>
-      <c r="J17" s="117"/>
-      <c r="K17" s="119"/>
-      <c r="L17" s="135"/>
-      <c r="M17" s="145"/>
-      <c r="N17" s="122"/>
-      <c r="O17" s="128"/>
-      <c r="P17" s="124"/>
-      <c r="Q17" s="129"/>
-      <c r="R17" s="129"/>
+      <c r="I17" s="116"/>
+      <c r="J17" s="115"/>
+      <c r="K17" s="117"/>
+      <c r="L17" s="133"/>
+      <c r="M17" s="143"/>
+      <c r="N17" s="120"/>
+      <c r="O17" s="126"/>
+      <c r="P17" s="122"/>
+      <c r="Q17" s="127"/>
+      <c r="R17" s="127"/>
       <c r="S17" s="89"/>
     </row>
     <row r="18">
-      <c r="A18" s="127"/>
-      <c r="B18" s="106" t="str">
+      <c r="A18" s="125"/>
+      <c r="B18" s="104" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(F18="""","""",COUNTA(SPLIT(F18,"" "")))"),"")</f>
         <v/>
       </c>
       <c r="C18" s="22"/>
-      <c r="D18" s="117"/>
+      <c r="D18" s="115"/>
       <c r="E18" s="22"/>
-      <c r="F18" s="143"/>
-      <c r="G18" s="118"/>
-      <c r="H18" s="141"/>
-      <c r="I18" s="118"/>
-      <c r="J18" s="117"/>
-      <c r="K18" s="119"/>
-      <c r="L18" s="120"/>
-      <c r="M18" s="145"/>
-      <c r="N18" s="122"/>
-      <c r="O18" s="128"/>
-      <c r="P18" s="124"/>
-      <c r="Q18" s="129"/>
-      <c r="R18" s="129"/>
+      <c r="F18" s="141"/>
+      <c r="G18" s="116"/>
+      <c r="H18" s="139"/>
+      <c r="I18" s="116"/>
+      <c r="J18" s="115"/>
+      <c r="K18" s="117"/>
+      <c r="L18" s="118"/>
+      <c r="M18" s="143"/>
+      <c r="N18" s="120"/>
+      <c r="O18" s="126"/>
+      <c r="P18" s="122"/>
+      <c r="Q18" s="127"/>
+      <c r="R18" s="127"/>
       <c r="S18" s="89"/>
     </row>
     <row r="19">
-      <c r="A19" s="116"/>
-      <c r="B19" s="106" t="str">
+      <c r="A19" s="114"/>
+      <c r="B19" s="104" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(F19="""","""",COUNTA(SPLIT(F19,"" "")))"),"")</f>
         <v/>
       </c>
       <c r="C19" s="22"/>
-      <c r="D19" s="117"/>
+      <c r="D19" s="115"/>
       <c r="E19" s="22"/>
-      <c r="F19" s="139"/>
-      <c r="G19" s="118"/>
-      <c r="H19" s="131"/>
-      <c r="I19" s="118"/>
-      <c r="J19" s="117"/>
-      <c r="K19" s="119"/>
-      <c r="L19" s="120"/>
-      <c r="M19" s="121"/>
-      <c r="N19" s="122"/>
-      <c r="O19" s="123"/>
-      <c r="P19" s="124"/>
+      <c r="F19" s="137"/>
+      <c r="G19" s="116"/>
+      <c r="H19" s="129"/>
+      <c r="I19" s="116"/>
+      <c r="J19" s="115"/>
+      <c r="K19" s="117"/>
+      <c r="L19" s="118"/>
+      <c r="M19" s="119"/>
+      <c r="N19" s="120"/>
+      <c r="O19" s="121"/>
+      <c r="P19" s="122"/>
       <c r="Q19" s="89"/>
       <c r="R19" s="89"/>
       <c r="S19" s="89"/>
     </row>
     <row r="20">
-      <c r="A20" s="116"/>
-      <c r="B20" s="106" t="str">
+      <c r="A20" s="114"/>
+      <c r="B20" s="104" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(F20="""","""",COUNTA(SPLIT(F20,"" "")))"),"")</f>
         <v/>
       </c>
       <c r="C20" s="22"/>
       <c r="D20" s="22"/>
       <c r="E20" s="22"/>
-      <c r="F20" s="139"/>
-      <c r="G20" s="118"/>
+      <c r="F20" s="137"/>
+      <c r="G20" s="116"/>
       <c r="H20" s="84"/>
-      <c r="I20" s="118"/>
-      <c r="J20" s="117"/>
-      <c r="K20" s="119"/>
-      <c r="L20" s="120"/>
-      <c r="M20" s="121"/>
-      <c r="N20" s="122"/>
-      <c r="O20" s="128"/>
-      <c r="P20" s="124"/>
-      <c r="Q20" s="129"/>
-      <c r="R20" s="129"/>
+      <c r="I20" s="116"/>
+      <c r="J20" s="115"/>
+      <c r="K20" s="117"/>
+      <c r="L20" s="118"/>
+      <c r="M20" s="119"/>
+      <c r="N20" s="120"/>
+      <c r="O20" s="126"/>
+      <c r="P20" s="122"/>
+      <c r="Q20" s="127"/>
+      <c r="R20" s="127"/>
       <c r="S20" s="89"/>
     </row>
     <row r="21">
-      <c r="A21" s="116"/>
-      <c r="B21" s="106" t="str">
+      <c r="A21" s="114"/>
+      <c r="B21" s="104" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(F21="""","""",COUNTA(SPLIT(F21,"" "")))"),"")</f>
         <v/>
       </c>
       <c r="C21" s="22"/>
       <c r="D21" s="22"/>
       <c r="E21" s="22"/>
-      <c r="F21" s="139"/>
-      <c r="G21" s="118"/>
+      <c r="F21" s="137"/>
+      <c r="G21" s="116"/>
       <c r="H21" s="84"/>
-      <c r="I21" s="118"/>
-      <c r="J21" s="117"/>
-      <c r="K21" s="119"/>
-      <c r="L21" s="120"/>
-      <c r="M21" s="121"/>
-      <c r="N21" s="122"/>
-      <c r="O21" s="128"/>
-      <c r="P21" s="124"/>
-      <c r="Q21" s="129"/>
-      <c r="R21" s="129"/>
+      <c r="I21" s="116"/>
+      <c r="J21" s="115"/>
+      <c r="K21" s="117"/>
+      <c r="L21" s="118"/>
+      <c r="M21" s="119"/>
+      <c r="N21" s="120"/>
+      <c r="O21" s="126"/>
+      <c r="P21" s="122"/>
+      <c r="Q21" s="127"/>
+      <c r="R21" s="127"/>
       <c r="S21" s="89"/>
     </row>
     <row r="22">
-      <c r="A22" s="116"/>
-      <c r="B22" s="106" t="str">
+      <c r="A22" s="114"/>
+      <c r="B22" s="104" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(F22="""","""",COUNTA(SPLIT(F22,"" "")))"),"")</f>
         <v/>
       </c>
       <c r="C22" s="22"/>
       <c r="D22" s="22"/>
       <c r="E22" s="22"/>
-      <c r="F22" s="143"/>
-      <c r="G22" s="118"/>
+      <c r="F22" s="141"/>
+      <c r="G22" s="116"/>
       <c r="H22" s="84"/>
-      <c r="I22" s="118"/>
-      <c r="J22" s="117"/>
-      <c r="K22" s="119"/>
-      <c r="L22" s="120"/>
-      <c r="M22" s="121"/>
-      <c r="N22" s="122"/>
-      <c r="O22" s="128"/>
-      <c r="P22" s="124"/>
-      <c r="Q22" s="129"/>
-      <c r="R22" s="129"/>
+      <c r="I22" s="116"/>
+      <c r="J22" s="115"/>
+      <c r="K22" s="117"/>
+      <c r="L22" s="118"/>
+      <c r="M22" s="119"/>
+      <c r="N22" s="120"/>
+      <c r="O22" s="126"/>
+      <c r="P22" s="122"/>
+      <c r="Q22" s="127"/>
+      <c r="R22" s="127"/>
       <c r="S22" s="89"/>
     </row>
     <row r="23">
-      <c r="A23" s="116"/>
-      <c r="B23" s="106" t="str">
+      <c r="A23" s="114"/>
+      <c r="B23" s="104" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(F23="""","""",COUNTA(SPLIT(F23,"" "")))"),"")</f>
         <v/>
       </c>
       <c r="C23" s="22"/>
       <c r="D23" s="22"/>
       <c r="E23" s="22"/>
-      <c r="F23" s="143"/>
-      <c r="G23" s="118"/>
+      <c r="F23" s="141"/>
+      <c r="G23" s="116"/>
       <c r="H23" s="84"/>
-      <c r="I23" s="118"/>
-      <c r="J23" s="117"/>
-      <c r="K23" s="119"/>
-      <c r="L23" s="120"/>
-      <c r="M23" s="121"/>
-      <c r="N23" s="122"/>
-      <c r="O23" s="128"/>
-      <c r="P23" s="124"/>
-      <c r="Q23" s="129"/>
-      <c r="R23" s="129"/>
+      <c r="I23" s="116"/>
+      <c r="J23" s="115"/>
+      <c r="K23" s="117"/>
+      <c r="L23" s="118"/>
+      <c r="M23" s="119"/>
+      <c r="N23" s="120"/>
+      <c r="O23" s="126"/>
+      <c r="P23" s="122"/>
+      <c r="Q23" s="127"/>
+      <c r="R23" s="127"/>
       <c r="S23" s="89"/>
     </row>
     <row r="24">
-      <c r="A24" s="116"/>
-      <c r="B24" s="106" t="str">
+      <c r="A24" s="114"/>
+      <c r="B24" s="104" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(F24="""","""",COUNTA(SPLIT(F24,"" "")))"),"")</f>
         <v/>
       </c>
       <c r="C24" s="22"/>
       <c r="D24" s="22"/>
       <c r="E24" s="22"/>
-      <c r="F24" s="143"/>
-      <c r="G24" s="118"/>
+      <c r="F24" s="141"/>
+      <c r="G24" s="116"/>
       <c r="H24" s="84"/>
-      <c r="I24" s="118"/>
-      <c r="J24" s="117"/>
-      <c r="K24" s="119"/>
-      <c r="L24" s="120"/>
-      <c r="M24" s="121"/>
-      <c r="N24" s="122"/>
-      <c r="O24" s="128"/>
-      <c r="P24" s="124"/>
-      <c r="Q24" s="129"/>
-      <c r="R24" s="129"/>
+      <c r="I24" s="116"/>
+      <c r="J24" s="115"/>
+      <c r="K24" s="117"/>
+      <c r="L24" s="118"/>
+      <c r="M24" s="119"/>
+      <c r="N24" s="120"/>
+      <c r="O24" s="126"/>
+      <c r="P24" s="122"/>
+      <c r="Q24" s="127"/>
+      <c r="R24" s="127"/>
       <c r="S24" s="89"/>
     </row>
     <row r="25">
-      <c r="A25" s="116"/>
-      <c r="B25" s="106" t="str">
+      <c r="A25" s="114"/>
+      <c r="B25" s="104" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(F25="""","""",COUNTA(SPLIT(F25,"" "")))"),"")</f>
         <v/>
       </c>
       <c r="C25" s="22"/>
       <c r="D25" s="22"/>
       <c r="E25" s="22"/>
-      <c r="F25" s="139"/>
-      <c r="G25" s="118"/>
+      <c r="F25" s="137"/>
+      <c r="G25" s="116"/>
       <c r="H25" s="84"/>
-      <c r="I25" s="118"/>
-      <c r="J25" s="117"/>
-      <c r="K25" s="119"/>
-      <c r="L25" s="135"/>
-      <c r="M25" s="121"/>
-      <c r="N25" s="122"/>
-      <c r="O25" s="128"/>
-      <c r="P25" s="124"/>
-      <c r="Q25" s="129"/>
-      <c r="R25" s="129"/>
+      <c r="I25" s="116"/>
+      <c r="J25" s="115"/>
+      <c r="K25" s="117"/>
+      <c r="L25" s="133"/>
+      <c r="M25" s="119"/>
+      <c r="N25" s="120"/>
+      <c r="O25" s="126"/>
+      <c r="P25" s="122"/>
+      <c r="Q25" s="127"/>
+      <c r="R25" s="127"/>
       <c r="S25" s="89"/>
     </row>
     <row r="26">
-      <c r="A26" s="116"/>
-      <c r="B26" s="106" t="str">
+      <c r="A26" s="114"/>
+      <c r="B26" s="104" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(F26="""","""",COUNTA(SPLIT(F26,"" "")))"),"")</f>
         <v/>
       </c>
       <c r="C26" s="22"/>
       <c r="D26" s="22"/>
       <c r="E26" s="22"/>
-      <c r="F26" s="139"/>
-      <c r="G26" s="118"/>
+      <c r="F26" s="137"/>
+      <c r="G26" s="116"/>
       <c r="H26" s="84"/>
-      <c r="I26" s="118"/>
-      <c r="J26" s="117"/>
-      <c r="K26" s="119"/>
-      <c r="L26" s="120"/>
-      <c r="M26" s="121"/>
-      <c r="N26" s="122"/>
-      <c r="O26" s="128"/>
-      <c r="P26" s="124"/>
-      <c r="Q26" s="129"/>
-      <c r="R26" s="129"/>
+      <c r="I26" s="116"/>
+      <c r="J26" s="115"/>
+      <c r="K26" s="117"/>
+      <c r="L26" s="118"/>
+      <c r="M26" s="119"/>
+      <c r="N26" s="120"/>
+      <c r="O26" s="126"/>
+      <c r="P26" s="122"/>
+      <c r="Q26" s="127"/>
+      <c r="R26" s="127"/>
       <c r="S26" s="89"/>
     </row>
     <row r="27">
-      <c r="A27" s="116"/>
-      <c r="B27" s="106" t="str">
+      <c r="A27" s="114"/>
+      <c r="B27" s="104" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(F27="""","""",COUNTA(SPLIT(F27,"" "")))"),"")</f>
         <v/>
       </c>
       <c r="C27" s="22"/>
       <c r="D27" s="22"/>
       <c r="E27" s="22"/>
-      <c r="F27" s="139"/>
-      <c r="G27" s="118"/>
-      <c r="H27" s="131"/>
-      <c r="I27" s="118"/>
-      <c r="J27" s="117"/>
-      <c r="K27" s="119"/>
-      <c r="L27" s="120"/>
-      <c r="M27" s="121"/>
-      <c r="N27" s="122"/>
-      <c r="O27" s="128"/>
-      <c r="P27" s="124"/>
-      <c r="Q27" s="129"/>
-      <c r="R27" s="129"/>
+      <c r="F27" s="137"/>
+      <c r="G27" s="116"/>
+      <c r="H27" s="129"/>
+      <c r="I27" s="116"/>
+      <c r="J27" s="115"/>
+      <c r="K27" s="117"/>
+      <c r="L27" s="118"/>
+      <c r="M27" s="119"/>
+      <c r="N27" s="120"/>
+      <c r="O27" s="126"/>
+      <c r="P27" s="122"/>
+      <c r="Q27" s="127"/>
+      <c r="R27" s="127"/>
       <c r="S27" s="89"/>
     </row>
     <row r="28">
-      <c r="A28" s="116"/>
-      <c r="B28" s="106" t="str">
+      <c r="A28" s="114"/>
+      <c r="B28" s="104" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(F28="""","""",COUNTA(SPLIT(F28,"" "")))"),"")</f>
         <v/>
       </c>
       <c r="C28" s="22"/>
       <c r="D28" s="22"/>
       <c r="E28" s="22"/>
-      <c r="F28" s="139"/>
-      <c r="G28" s="118"/>
+      <c r="F28" s="137"/>
+      <c r="G28" s="116"/>
       <c r="H28" s="84"/>
-      <c r="I28" s="118"/>
-      <c r="J28" s="117"/>
-      <c r="K28" s="119"/>
-      <c r="L28" s="120"/>
-      <c r="M28" s="121"/>
-      <c r="N28" s="122"/>
-      <c r="O28" s="128"/>
-      <c r="P28" s="124"/>
-      <c r="Q28" s="129"/>
-      <c r="R28" s="129"/>
+      <c r="I28" s="116"/>
+      <c r="J28" s="115"/>
+      <c r="K28" s="117"/>
+      <c r="L28" s="118"/>
+      <c r="M28" s="119"/>
+      <c r="N28" s="120"/>
+      <c r="O28" s="126"/>
+      <c r="P28" s="122"/>
+      <c r="Q28" s="127"/>
+      <c r="R28" s="127"/>
       <c r="S28" s="89"/>
     </row>
     <row r="29">
-      <c r="A29" s="116"/>
-      <c r="B29" s="106" t="str">
+      <c r="A29" s="114"/>
+      <c r="B29" s="104" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(F29="""","""",COUNTA(SPLIT(F29,"" "")))"),"")</f>
         <v/>
       </c>
       <c r="C29" s="22"/>
       <c r="D29" s="22"/>
       <c r="E29" s="22"/>
-      <c r="F29" s="143"/>
-      <c r="G29" s="118"/>
+      <c r="F29" s="141"/>
+      <c r="G29" s="116"/>
       <c r="H29" s="84"/>
-      <c r="I29" s="118"/>
-      <c r="J29" s="117"/>
-      <c r="K29" s="119"/>
-      <c r="L29" s="120"/>
-      <c r="M29" s="121"/>
-      <c r="N29" s="122"/>
-      <c r="O29" s="128"/>
-      <c r="P29" s="124"/>
-      <c r="Q29" s="129"/>
-      <c r="R29" s="146"/>
+      <c r="I29" s="116"/>
+      <c r="J29" s="115"/>
+      <c r="K29" s="117"/>
+      <c r="L29" s="118"/>
+      <c r="M29" s="119"/>
+      <c r="N29" s="120"/>
+      <c r="O29" s="126"/>
+      <c r="P29" s="122"/>
+      <c r="Q29" s="127"/>
+      <c r="R29" s="144"/>
       <c r="S29" s="89"/>
     </row>
     <row r="30">
-      <c r="A30" s="116"/>
-      <c r="B30" s="106" t="str">
+      <c r="A30" s="114"/>
+      <c r="B30" s="104" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(F30="""","""",COUNTA(SPLIT(F30,"" "")))"),"")</f>
         <v/>
       </c>
       <c r="C30" s="22"/>
       <c r="D30" s="22"/>
       <c r="E30" s="22"/>
-      <c r="F30" s="139"/>
-      <c r="G30" s="118"/>
+      <c r="F30" s="137"/>
+      <c r="G30" s="116"/>
       <c r="H30" s="84"/>
-      <c r="I30" s="118"/>
-      <c r="J30" s="117"/>
-      <c r="K30" s="119"/>
-      <c r="L30" s="120"/>
-      <c r="M30" s="121"/>
-      <c r="N30" s="122"/>
-      <c r="O30" s="128"/>
-      <c r="P30" s="124"/>
-      <c r="Q30" s="129"/>
-      <c r="R30" s="146"/>
+      <c r="I30" s="116"/>
+      <c r="J30" s="115"/>
+      <c r="K30" s="117"/>
+      <c r="L30" s="118"/>
+      <c r="M30" s="119"/>
+      <c r="N30" s="120"/>
+      <c r="O30" s="126"/>
+      <c r="P30" s="122"/>
+      <c r="Q30" s="127"/>
+      <c r="R30" s="144"/>
       <c r="S30" s="89"/>
     </row>
     <row r="31">
-      <c r="A31" s="116"/>
-      <c r="B31" s="106" t="str">
+      <c r="A31" s="114"/>
+      <c r="B31" s="104" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(F31="""","""",COUNTA(SPLIT(F31,"" "")))"),"")</f>
         <v/>
       </c>
       <c r="C31" s="22"/>
       <c r="D31" s="22"/>
       <c r="E31" s="22"/>
-      <c r="F31" s="139"/>
-      <c r="G31" s="118"/>
-      <c r="H31" s="131"/>
-      <c r="I31" s="118"/>
-      <c r="J31" s="117"/>
-      <c r="K31" s="119"/>
-      <c r="L31" s="120"/>
-      <c r="M31" s="121"/>
-      <c r="N31" s="122"/>
-      <c r="O31" s="128"/>
-      <c r="P31" s="124"/>
-      <c r="Q31" s="129"/>
-      <c r="R31" s="129"/>
-      <c r="S31" s="147"/>
+      <c r="F31" s="137"/>
+      <c r="G31" s="116"/>
+      <c r="H31" s="129"/>
+      <c r="I31" s="116"/>
+      <c r="J31" s="115"/>
+      <c r="K31" s="117"/>
+      <c r="L31" s="118"/>
+      <c r="M31" s="119"/>
+      <c r="N31" s="120"/>
+      <c r="O31" s="126"/>
+      <c r="P31" s="122"/>
+      <c r="Q31" s="127"/>
+      <c r="R31" s="127"/>
+      <c r="S31" s="145"/>
     </row>
     <row r="32">
-      <c r="A32" s="116"/>
-      <c r="B32" s="106" t="str">
+      <c r="A32" s="114"/>
+      <c r="B32" s="104" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(F32="""","""",COUNTA(SPLIT(F32,"" "")))"),"")</f>
         <v/>
       </c>
       <c r="C32" s="22"/>
       <c r="D32" s="22"/>
       <c r="E32" s="22"/>
-      <c r="F32" s="139"/>
-      <c r="G32" s="118"/>
-      <c r="H32" s="131"/>
-      <c r="I32" s="118"/>
-      <c r="J32" s="117"/>
-      <c r="K32" s="119"/>
-      <c r="L32" s="120"/>
-      <c r="M32" s="121"/>
-      <c r="N32" s="122"/>
-      <c r="O32" s="128"/>
-      <c r="P32" s="124"/>
-      <c r="Q32" s="129"/>
+      <c r="F32" s="137"/>
+      <c r="G32" s="116"/>
+      <c r="H32" s="129"/>
+      <c r="I32" s="116"/>
+      <c r="J32" s="115"/>
+      <c r="K32" s="117"/>
+      <c r="L32" s="118"/>
+      <c r="M32" s="119"/>
+      <c r="N32" s="120"/>
+      <c r="O32" s="126"/>
+      <c r="P32" s="122"/>
+      <c r="Q32" s="127"/>
       <c r="R32" s="89"/>
       <c r="S32" s="89"/>
     </row>
     <row r="33">
-      <c r="A33" s="127"/>
-      <c r="B33" s="106" t="str">
+      <c r="A33" s="125"/>
+      <c r="B33" s="104" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(F33="""","""",COUNTA(SPLIT(F33,"" "")))"),"")</f>
         <v/>
       </c>
       <c r="C33" s="22"/>
       <c r="D33" s="22"/>
       <c r="E33" s="22"/>
-      <c r="F33" s="139"/>
-      <c r="G33" s="118"/>
+      <c r="F33" s="137"/>
+      <c r="G33" s="116"/>
       <c r="H33" s="84"/>
-      <c r="I33" s="118"/>
-      <c r="J33" s="117"/>
-      <c r="K33" s="119"/>
-      <c r="L33" s="135"/>
-      <c r="M33" s="121"/>
-      <c r="N33" s="122"/>
-      <c r="O33" s="128"/>
-      <c r="P33" s="124"/>
-      <c r="Q33" s="129"/>
-      <c r="R33" s="129"/>
+      <c r="I33" s="116"/>
+      <c r="J33" s="115"/>
+      <c r="K33" s="117"/>
+      <c r="L33" s="133"/>
+      <c r="M33" s="119"/>
+      <c r="N33" s="120"/>
+      <c r="O33" s="126"/>
+      <c r="P33" s="122"/>
+      <c r="Q33" s="127"/>
+      <c r="R33" s="127"/>
       <c r="S33" s="89"/>
     </row>
     <row r="34">
-      <c r="A34" s="148"/>
-      <c r="B34" s="106" t="str">
+      <c r="A34" s="146"/>
+      <c r="B34" s="104" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(F34="""","""",COUNTA(SPLIT(F34,"" "")))"),"")</f>
         <v/>
       </c>
       <c r="C34" s="77"/>
       <c r="D34" s="42"/>
-      <c r="E34" s="149"/>
-      <c r="F34" s="150"/>
-      <c r="G34" s="151"/>
-      <c r="H34" s="152"/>
-      <c r="I34" s="133"/>
-      <c r="J34" s="132"/>
-      <c r="K34" s="119"/>
-      <c r="L34" s="153"/>
-      <c r="M34" s="121"/>
-      <c r="N34" s="122"/>
-      <c r="O34" s="128"/>
-      <c r="P34" s="124"/>
-      <c r="Q34" s="129"/>
-      <c r="R34" s="129"/>
+      <c r="E34" s="147"/>
+      <c r="F34" s="148"/>
+      <c r="G34" s="149"/>
+      <c r="H34" s="150"/>
+      <c r="I34" s="131"/>
+      <c r="J34" s="130"/>
+      <c r="K34" s="117"/>
+      <c r="L34" s="151"/>
+      <c r="M34" s="119"/>
+      <c r="N34" s="120"/>
+      <c r="O34" s="126"/>
+      <c r="P34" s="122"/>
+      <c r="Q34" s="127"/>
+      <c r="R34" s="127"/>
       <c r="S34" s="89"/>
     </row>
     <row r="35">
-      <c r="A35" s="148"/>
-      <c r="B35" s="106" t="str">
+      <c r="A35" s="146"/>
+      <c r="B35" s="104" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(F35="""","""",COUNTA(SPLIT(F35,"" "")))"),"")</f>
         <v/>
       </c>
       <c r="C35" s="77"/>
       <c r="D35" s="42"/>
-      <c r="E35" s="149"/>
-      <c r="F35" s="154"/>
-      <c r="G35" s="151"/>
-      <c r="H35" s="155"/>
-      <c r="I35" s="151"/>
-      <c r="J35" s="132"/>
-      <c r="K35" s="119"/>
-      <c r="L35" s="153"/>
-      <c r="M35" s="121"/>
-      <c r="N35" s="122"/>
-      <c r="O35" s="128"/>
-      <c r="P35" s="124"/>
-      <c r="Q35" s="129"/>
+      <c r="E35" s="147"/>
+      <c r="F35" s="152"/>
+      <c r="G35" s="149"/>
+      <c r="H35" s="153"/>
+      <c r="I35" s="149"/>
+      <c r="J35" s="130"/>
+      <c r="K35" s="117"/>
+      <c r="L35" s="151"/>
+      <c r="M35" s="119"/>
+      <c r="N35" s="120"/>
+      <c r="O35" s="126"/>
+      <c r="P35" s="122"/>
+      <c r="Q35" s="127"/>
       <c r="R35" s="89"/>
       <c r="S35" s="89"/>
     </row>
     <row r="36">
-      <c r="A36" s="127"/>
-      <c r="B36" s="106" t="str">
+      <c r="A36" s="125"/>
+      <c r="B36" s="104" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(F36="""","""",COUNTA(SPLIT(F36,"" "")))"),"")</f>
         <v/>
       </c>
       <c r="C36" s="22"/>
       <c r="D36" s="22"/>
       <c r="E36" s="22"/>
-      <c r="F36" s="139"/>
-      <c r="G36" s="118"/>
+      <c r="F36" s="137"/>
+      <c r="G36" s="116"/>
       <c r="H36" s="84"/>
-      <c r="I36" s="118"/>
-      <c r="J36" s="117"/>
-      <c r="K36" s="119"/>
-      <c r="L36" s="135"/>
-      <c r="M36" s="121"/>
-      <c r="N36" s="122"/>
-      <c r="O36" s="128"/>
-      <c r="P36" s="124"/>
-      <c r="Q36" s="129"/>
-      <c r="R36" s="129"/>
+      <c r="I36" s="116"/>
+      <c r="J36" s="115"/>
+      <c r="K36" s="117"/>
+      <c r="L36" s="133"/>
+      <c r="M36" s="119"/>
+      <c r="N36" s="120"/>
+      <c r="O36" s="126"/>
+      <c r="P36" s="122"/>
+      <c r="Q36" s="127"/>
+      <c r="R36" s="127"/>
       <c r="S36" s="89"/>
     </row>
     <row r="37">
-      <c r="A37" s="127"/>
-      <c r="B37" s="106" t="str">
+      <c r="A37" s="125"/>
+      <c r="B37" s="104" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(F37="""","""",COUNTA(SPLIT(F37,"" "")))"),"")</f>
         <v/>
       </c>
       <c r="C37" s="22"/>
       <c r="D37" s="22"/>
       <c r="E37" s="22"/>
-      <c r="F37" s="143"/>
-      <c r="G37" s="118"/>
+      <c r="F37" s="141"/>
+      <c r="G37" s="116"/>
       <c r="H37" s="84"/>
-      <c r="I37" s="118"/>
-      <c r="J37" s="117"/>
-      <c r="K37" s="119"/>
-      <c r="L37" s="135"/>
-      <c r="M37" s="121"/>
-      <c r="N37" s="122"/>
-      <c r="O37" s="128"/>
-      <c r="P37" s="124"/>
-      <c r="Q37" s="129"/>
-      <c r="R37" s="129"/>
+      <c r="I37" s="116"/>
+      <c r="J37" s="115"/>
+      <c r="K37" s="117"/>
+      <c r="L37" s="133"/>
+      <c r="M37" s="119"/>
+      <c r="N37" s="120"/>
+      <c r="O37" s="126"/>
+      <c r="P37" s="122"/>
+      <c r="Q37" s="127"/>
+      <c r="R37" s="127"/>
       <c r="S37" s="89"/>
     </row>
     <row r="38">
-      <c r="A38" s="127"/>
-      <c r="B38" s="106" t="str">
+      <c r="A38" s="125"/>
+      <c r="B38" s="104" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(F38="""","""",COUNTA(SPLIT(F38,"" "")))"),"")</f>
         <v/>
       </c>
       <c r="C38" s="22"/>
       <c r="D38" s="22"/>
       <c r="E38" s="22"/>
-      <c r="F38" s="139"/>
-      <c r="G38" s="118"/>
+      <c r="F38" s="137"/>
+      <c r="G38" s="116"/>
       <c r="H38" s="84"/>
-      <c r="I38" s="118"/>
-      <c r="J38" s="117"/>
-      <c r="K38" s="119"/>
-      <c r="L38" s="135"/>
-      <c r="M38" s="121"/>
-      <c r="N38" s="122"/>
-      <c r="O38" s="128"/>
-      <c r="P38" s="124"/>
-      <c r="Q38" s="129"/>
+      <c r="I38" s="116"/>
+      <c r="J38" s="115"/>
+      <c r="K38" s="117"/>
+      <c r="L38" s="133"/>
+      <c r="M38" s="119"/>
+      <c r="N38" s="120"/>
+      <c r="O38" s="126"/>
+      <c r="P38" s="122"/>
+      <c r="Q38" s="127"/>
       <c r="R38" s="89"/>
       <c r="S38" s="89"/>
     </row>
     <row r="39">
-      <c r="A39" s="127"/>
-      <c r="B39" s="106" t="str">
+      <c r="A39" s="125"/>
+      <c r="B39" s="104" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(F39="""","""",COUNTA(SPLIT(F39,"" "")))"),"")</f>
         <v/>
       </c>
       <c r="C39" s="22"/>
       <c r="D39" s="22"/>
       <c r="E39" s="22"/>
-      <c r="F39" s="139"/>
-      <c r="G39" s="118"/>
+      <c r="F39" s="137"/>
+      <c r="G39" s="116"/>
       <c r="H39" s="84"/>
-      <c r="I39" s="118"/>
-      <c r="J39" s="117"/>
-      <c r="K39" s="119"/>
-      <c r="L39" s="135"/>
-      <c r="M39" s="121"/>
-      <c r="N39" s="122"/>
-      <c r="O39" s="128"/>
-      <c r="P39" s="124"/>
-      <c r="Q39" s="129"/>
-      <c r="R39" s="129"/>
+      <c r="I39" s="116"/>
+      <c r="J39" s="115"/>
+      <c r="K39" s="117"/>
+      <c r="L39" s="133"/>
+      <c r="M39" s="119"/>
+      <c r="N39" s="120"/>
+      <c r="O39" s="126"/>
+      <c r="P39" s="122"/>
+      <c r="Q39" s="127"/>
+      <c r="R39" s="127"/>
       <c r="S39" s="89"/>
     </row>
     <row r="40">
-      <c r="A40" s="116"/>
-      <c r="B40" s="106" t="str">
+      <c r="A40" s="114"/>
+      <c r="B40" s="104" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(F40="""","""",COUNTA(SPLIT(F40,"" "")))"),"")</f>
         <v/>
       </c>
       <c r="C40" s="22"/>
       <c r="D40" s="22"/>
       <c r="E40" s="22"/>
-      <c r="F40" s="143"/>
-      <c r="G40" s="118"/>
+      <c r="F40" s="141"/>
+      <c r="G40" s="116"/>
       <c r="H40" s="84"/>
-      <c r="I40" s="118"/>
-      <c r="J40" s="117"/>
-      <c r="K40" s="119"/>
-      <c r="L40" s="135"/>
-      <c r="M40" s="121"/>
-      <c r="N40" s="122"/>
-      <c r="O40" s="128"/>
-      <c r="P40" s="124"/>
-      <c r="Q40" s="129"/>
-      <c r="R40" s="129"/>
+      <c r="I40" s="116"/>
+      <c r="J40" s="115"/>
+      <c r="K40" s="117"/>
+      <c r="L40" s="133"/>
+      <c r="M40" s="119"/>
+      <c r="N40" s="120"/>
+      <c r="O40" s="126"/>
+      <c r="P40" s="122"/>
+      <c r="Q40" s="127"/>
+      <c r="R40" s="127"/>
       <c r="S40" s="89"/>
     </row>
     <row r="41">
-      <c r="A41" s="127"/>
-      <c r="B41" s="106" t="str">
+      <c r="A41" s="125"/>
+      <c r="B41" s="104" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(F41="""","""",COUNTA(SPLIT(F41,"" "")))"),"")</f>
         <v/>
       </c>
       <c r="C41" s="22"/>
       <c r="D41" s="22"/>
       <c r="E41" s="22"/>
-      <c r="F41" s="139"/>
-      <c r="G41" s="118"/>
-      <c r="H41" s="131"/>
-      <c r="I41" s="118"/>
-      <c r="J41" s="117"/>
-      <c r="K41" s="119"/>
-      <c r="L41" s="135"/>
-      <c r="M41" s="121"/>
-      <c r="N41" s="122"/>
-      <c r="O41" s="128"/>
-      <c r="P41" s="124"/>
-      <c r="Q41" s="129"/>
-      <c r="R41" s="129"/>
+      <c r="F41" s="137"/>
+      <c r="G41" s="116"/>
+      <c r="H41" s="129"/>
+      <c r="I41" s="116"/>
+      <c r="J41" s="115"/>
+      <c r="K41" s="117"/>
+      <c r="L41" s="133"/>
+      <c r="M41" s="119"/>
+      <c r="N41" s="120"/>
+      <c r="O41" s="126"/>
+      <c r="P41" s="122"/>
+      <c r="Q41" s="127"/>
+      <c r="R41" s="127"/>
       <c r="S41" s="89"/>
     </row>
     <row r="42">
-      <c r="A42" s="127"/>
-      <c r="B42" s="106" t="str">
+      <c r="A42" s="125"/>
+      <c r="B42" s="104" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(F42="""","""",COUNTA(SPLIT(F42,"" "")))"),"")</f>
         <v/>
       </c>
       <c r="C42" s="22"/>
       <c r="D42" s="22"/>
       <c r="E42" s="22"/>
-      <c r="F42" s="139"/>
-      <c r="G42" s="118"/>
+      <c r="F42" s="137"/>
+      <c r="G42" s="116"/>
       <c r="H42" s="84"/>
-      <c r="I42" s="118"/>
-      <c r="J42" s="117"/>
-      <c r="K42" s="119"/>
-      <c r="L42" s="135"/>
-      <c r="M42" s="121"/>
-      <c r="N42" s="122"/>
-      <c r="O42" s="128"/>
-      <c r="P42" s="124"/>
-      <c r="Q42" s="129"/>
-      <c r="R42" s="129"/>
+      <c r="I42" s="116"/>
+      <c r="J42" s="115"/>
+      <c r="K42" s="117"/>
+      <c r="L42" s="133"/>
+      <c r="M42" s="119"/>
+      <c r="N42" s="120"/>
+      <c r="O42" s="126"/>
+      <c r="P42" s="122"/>
+      <c r="Q42" s="127"/>
+      <c r="R42" s="127"/>
       <c r="S42" s="89"/>
     </row>
     <row r="43">
-      <c r="A43" s="127"/>
-      <c r="B43" s="106" t="str">
+      <c r="A43" s="125"/>
+      <c r="B43" s="104" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(F43="""","""",COUNTA(SPLIT(F43,"" "")))"),"")</f>
         <v/>
       </c>
       <c r="C43" s="22"/>
       <c r="D43" s="22"/>
       <c r="E43" s="22"/>
-      <c r="F43" s="143"/>
-      <c r="G43" s="118"/>
+      <c r="F43" s="141"/>
+      <c r="G43" s="116"/>
       <c r="H43" s="84"/>
-      <c r="I43" s="118"/>
-      <c r="J43" s="117"/>
-      <c r="K43" s="119"/>
-      <c r="L43" s="135"/>
-      <c r="M43" s="121"/>
-      <c r="N43" s="122"/>
-      <c r="O43" s="128"/>
-      <c r="P43" s="124"/>
-      <c r="Q43" s="129"/>
-      <c r="R43" s="129"/>
+      <c r="I43" s="116"/>
+      <c r="J43" s="115"/>
+      <c r="K43" s="117"/>
+      <c r="L43" s="133"/>
+      <c r="M43" s="119"/>
+      <c r="N43" s="120"/>
+      <c r="O43" s="126"/>
+      <c r="P43" s="122"/>
+      <c r="Q43" s="127"/>
+      <c r="R43" s="127"/>
       <c r="S43" s="89"/>
     </row>
     <row r="44">
-      <c r="A44" s="127"/>
-      <c r="B44" s="106" t="str">
+      <c r="A44" s="125"/>
+      <c r="B44" s="104" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(F44="""","""",COUNTA(SPLIT(F44,"" "")))"),"")</f>
         <v/>
       </c>
       <c r="C44" s="22"/>
       <c r="D44" s="22"/>
       <c r="E44" s="22"/>
-      <c r="F44" s="143"/>
-      <c r="G44" s="118"/>
+      <c r="F44" s="141"/>
+      <c r="G44" s="116"/>
       <c r="H44" s="84"/>
-      <c r="I44" s="118"/>
-      <c r="J44" s="117"/>
-      <c r="K44" s="119"/>
-      <c r="L44" s="135"/>
-      <c r="M44" s="121"/>
-      <c r="N44" s="122"/>
-      <c r="O44" s="128"/>
-      <c r="P44" s="124"/>
-      <c r="Q44" s="129"/>
-      <c r="R44" s="129"/>
+      <c r="I44" s="116"/>
+      <c r="J44" s="115"/>
+      <c r="K44" s="117"/>
+      <c r="L44" s="133"/>
+      <c r="M44" s="119"/>
+      <c r="N44" s="120"/>
+      <c r="O44" s="126"/>
+      <c r="P44" s="122"/>
+      <c r="Q44" s="127"/>
+      <c r="R44" s="127"/>
       <c r="S44" s="89"/>
     </row>
     <row r="45">
-      <c r="A45" s="127"/>
-      <c r="B45" s="106" t="str">
+      <c r="A45" s="125"/>
+      <c r="B45" s="104" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(F45="""","""",COUNTA(SPLIT(F45,"" "")))"),"")</f>
         <v/>
       </c>
       <c r="C45" s="22"/>
       <c r="D45" s="22"/>
       <c r="E45" s="22"/>
-      <c r="F45" s="139"/>
-      <c r="G45" s="118"/>
-      <c r="H45" s="131"/>
-      <c r="I45" s="118"/>
-      <c r="J45" s="117"/>
-      <c r="K45" s="119"/>
-      <c r="L45" s="135"/>
-      <c r="M45" s="121"/>
-      <c r="N45" s="122"/>
-      <c r="O45" s="128"/>
-      <c r="P45" s="124"/>
-      <c r="Q45" s="129"/>
-      <c r="R45" s="129"/>
+      <c r="F45" s="137"/>
+      <c r="G45" s="116"/>
+      <c r="H45" s="129"/>
+      <c r="I45" s="116"/>
+      <c r="J45" s="115"/>
+      <c r="K45" s="117"/>
+      <c r="L45" s="133"/>
+      <c r="M45" s="119"/>
+      <c r="N45" s="120"/>
+      <c r="O45" s="126"/>
+      <c r="P45" s="122"/>
+      <c r="Q45" s="127"/>
+      <c r="R45" s="127"/>
       <c r="S45" s="89"/>
     </row>
     <row r="46">
-      <c r="A46" s="116"/>
-      <c r="B46" s="106" t="str">
+      <c r="A46" s="114"/>
+      <c r="B46" s="104" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(F46="""","""",COUNTA(SPLIT(F46,"" "")))"),"")</f>
         <v/>
       </c>
       <c r="C46" s="22"/>
       <c r="D46" s="22"/>
       <c r="E46" s="22"/>
-      <c r="F46" s="143"/>
-      <c r="G46" s="118"/>
+      <c r="F46" s="141"/>
+      <c r="G46" s="116"/>
       <c r="H46" s="84"/>
-      <c r="I46" s="118"/>
-      <c r="J46" s="117"/>
-      <c r="K46" s="119"/>
-      <c r="L46" s="135"/>
-      <c r="M46" s="121"/>
-      <c r="N46" s="122"/>
-      <c r="O46" s="128"/>
-      <c r="P46" s="124"/>
-      <c r="Q46" s="129"/>
-      <c r="R46" s="129"/>
+      <c r="I46" s="116"/>
+      <c r="J46" s="115"/>
+      <c r="K46" s="117"/>
+      <c r="L46" s="133"/>
+      <c r="M46" s="119"/>
+      <c r="N46" s="120"/>
+      <c r="O46" s="126"/>
+      <c r="P46" s="122"/>
+      <c r="Q46" s="127"/>
+      <c r="R46" s="127"/>
       <c r="S46" s="89"/>
     </row>
     <row r="47">
-      <c r="A47" s="127"/>
-      <c r="B47" s="106" t="str">
+      <c r="A47" s="125"/>
+      <c r="B47" s="104" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(F47="""","""",COUNTA(SPLIT(F47,"" "")))"),"")</f>
         <v/>
       </c>
       <c r="C47" s="22"/>
       <c r="D47" s="22"/>
       <c r="E47" s="22"/>
-      <c r="F47" s="139"/>
-      <c r="G47" s="118"/>
+      <c r="F47" s="137"/>
+      <c r="G47" s="116"/>
       <c r="H47" s="84"/>
-      <c r="I47" s="118"/>
-      <c r="J47" s="117"/>
-      <c r="K47" s="119"/>
-      <c r="L47" s="135"/>
-      <c r="M47" s="121"/>
-      <c r="N47" s="122"/>
-      <c r="O47" s="128"/>
-      <c r="P47" s="124"/>
-      <c r="Q47" s="129"/>
-      <c r="R47" s="129"/>
+      <c r="I47" s="116"/>
+      <c r="J47" s="115"/>
+      <c r="K47" s="117"/>
+      <c r="L47" s="133"/>
+      <c r="M47" s="119"/>
+      <c r="N47" s="120"/>
+      <c r="O47" s="126"/>
+      <c r="P47" s="122"/>
+      <c r="Q47" s="127"/>
+      <c r="R47" s="127"/>
       <c r="S47" s="89"/>
     </row>
     <row r="48">
-      <c r="A48" s="127"/>
-      <c r="B48" s="106" t="str">
+      <c r="A48" s="125"/>
+      <c r="B48" s="104" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(F48="""","""",COUNTA(SPLIT(F48,"" "")))"),"")</f>
         <v/>
       </c>
       <c r="C48" s="22"/>
       <c r="D48" s="22"/>
       <c r="E48" s="22"/>
-      <c r="F48" s="139"/>
-      <c r="G48" s="118"/>
+      <c r="F48" s="137"/>
+      <c r="G48" s="116"/>
       <c r="H48" s="84"/>
-      <c r="I48" s="118"/>
-      <c r="J48" s="117"/>
-      <c r="K48" s="156"/>
-      <c r="L48" s="135"/>
-      <c r="M48" s="121"/>
-      <c r="N48" s="122"/>
-      <c r="O48" s="128"/>
-      <c r="P48" s="124"/>
-      <c r="Q48" s="129"/>
+      <c r="I48" s="116"/>
+      <c r="J48" s="115"/>
+      <c r="K48" s="154"/>
+      <c r="L48" s="133"/>
+      <c r="M48" s="119"/>
+      <c r="N48" s="120"/>
+      <c r="O48" s="126"/>
+      <c r="P48" s="122"/>
+      <c r="Q48" s="127"/>
       <c r="R48" s="89"/>
       <c r="S48" s="89"/>
     </row>
     <row r="49">
-      <c r="A49" s="127"/>
-      <c r="B49" s="106" t="str">
+      <c r="A49" s="125"/>
+      <c r="B49" s="104" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(F49="""","""",COUNTA(SPLIT(F49,"" "")))"),"")</f>
         <v/>
       </c>
       <c r="C49" s="22"/>
       <c r="D49" s="22"/>
       <c r="E49" s="22"/>
-      <c r="F49" s="139"/>
-      <c r="G49" s="118"/>
+      <c r="F49" s="137"/>
+      <c r="G49" s="116"/>
       <c r="H49" s="84"/>
-      <c r="I49" s="118"/>
-      <c r="J49" s="157"/>
-      <c r="K49" s="119"/>
-      <c r="L49" s="135"/>
-      <c r="M49" s="121"/>
-      <c r="N49" s="122"/>
-      <c r="O49" s="128"/>
-      <c r="P49" s="124"/>
-      <c r="Q49" s="129"/>
-      <c r="R49" s="129"/>
+      <c r="I49" s="116"/>
+      <c r="J49" s="155"/>
+      <c r="K49" s="117"/>
+      <c r="L49" s="133"/>
+      <c r="M49" s="119"/>
+      <c r="N49" s="120"/>
+      <c r="O49" s="126"/>
+      <c r="P49" s="122"/>
+      <c r="Q49" s="127"/>
+      <c r="R49" s="127"/>
       <c r="S49" s="89"/>
     </row>
     <row r="50">
-      <c r="A50" s="143"/>
-      <c r="B50" s="106" t="str">
+      <c r="A50" s="141"/>
+      <c r="B50" s="104" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(F50="""","""",COUNTA(SPLIT(F50,"" "")))"),"")</f>
         <v/>
       </c>
       <c r="C50" s="22"/>
       <c r="D50" s="22"/>
       <c r="E50" s="22"/>
-      <c r="F50" s="139"/>
-      <c r="G50" s="118"/>
-      <c r="H50" s="131"/>
-      <c r="I50" s="118"/>
-      <c r="J50" s="117"/>
-      <c r="K50" s="119"/>
-      <c r="L50" s="135"/>
-      <c r="M50" s="121"/>
-      <c r="N50" s="122"/>
-      <c r="O50" s="128"/>
-      <c r="P50" s="124"/>
-      <c r="Q50" s="129"/>
-      <c r="R50" s="129"/>
+      <c r="F50" s="137"/>
+      <c r="G50" s="116"/>
+      <c r="H50" s="129"/>
+      <c r="I50" s="116"/>
+      <c r="J50" s="115"/>
+      <c r="K50" s="117"/>
+      <c r="L50" s="133"/>
+      <c r="M50" s="119"/>
+      <c r="N50" s="120"/>
+      <c r="O50" s="126"/>
+      <c r="P50" s="122"/>
+      <c r="Q50" s="127"/>
+      <c r="R50" s="127"/>
       <c r="S50" s="89"/>
     </row>
     <row r="51">
-      <c r="A51" s="127"/>
-      <c r="B51" s="106" t="str">
+      <c r="A51" s="125"/>
+      <c r="B51" s="104" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(F51="""","""",COUNTA(SPLIT(F51,"" "")))"),"")</f>
         <v/>
       </c>
       <c r="C51" s="22"/>
       <c r="D51" s="22"/>
       <c r="E51" s="22"/>
-      <c r="F51" s="139"/>
-      <c r="G51" s="118"/>
+      <c r="F51" s="137"/>
+      <c r="G51" s="116"/>
       <c r="H51" s="84"/>
-      <c r="I51" s="118"/>
-      <c r="J51" s="117"/>
-      <c r="K51" s="119"/>
-      <c r="L51" s="135"/>
-      <c r="M51" s="121"/>
-      <c r="N51" s="122"/>
-      <c r="O51" s="128"/>
-      <c r="P51" s="124"/>
-      <c r="Q51" s="129"/>
-      <c r="R51" s="129"/>
+      <c r="I51" s="116"/>
+      <c r="J51" s="115"/>
+      <c r="K51" s="117"/>
+      <c r="L51" s="133"/>
+      <c r="M51" s="119"/>
+      <c r="N51" s="120"/>
+      <c r="O51" s="126"/>
+      <c r="P51" s="122"/>
+      <c r="Q51" s="127"/>
+      <c r="R51" s="127"/>
       <c r="S51" s="89"/>
     </row>
     <row r="52">
-      <c r="A52" s="127"/>
-      <c r="B52" s="106" t="str">
+      <c r="A52" s="125"/>
+      <c r="B52" s="104" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(F52="""","""",COUNTA(SPLIT(F52,"" "")))"),"")</f>
         <v/>
       </c>
       <c r="C52" s="22"/>
       <c r="D52" s="22"/>
       <c r="E52" s="22"/>
-      <c r="F52" s="139"/>
-      <c r="G52" s="118"/>
+      <c r="F52" s="137"/>
+      <c r="G52" s="116"/>
       <c r="H52" s="84"/>
-      <c r="I52" s="118"/>
-      <c r="J52" s="117"/>
-      <c r="K52" s="119"/>
-      <c r="L52" s="135"/>
-      <c r="M52" s="121"/>
-      <c r="N52" s="122"/>
-      <c r="O52" s="128"/>
-      <c r="P52" s="124"/>
-      <c r="Q52" s="129"/>
-      <c r="R52" s="129"/>
+      <c r="I52" s="116"/>
+      <c r="J52" s="115"/>
+      <c r="K52" s="117"/>
+      <c r="L52" s="133"/>
+      <c r="M52" s="119"/>
+      <c r="N52" s="120"/>
+      <c r="O52" s="126"/>
+      <c r="P52" s="122"/>
+      <c r="Q52" s="127"/>
+      <c r="R52" s="127"/>
       <c r="S52" s="89"/>
     </row>
     <row r="53">
-      <c r="A53" s="127"/>
-      <c r="B53" s="106" t="str">
+      <c r="A53" s="125"/>
+      <c r="B53" s="104" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(F53="""","""",COUNTA(SPLIT(F53,"" "")))"),"")</f>
         <v/>
       </c>
       <c r="C53" s="22"/>
       <c r="D53" s="22"/>
       <c r="E53" s="22"/>
-      <c r="F53" s="139"/>
-      <c r="G53" s="118"/>
+      <c r="F53" s="137"/>
+      <c r="G53" s="116"/>
       <c r="H53" s="84"/>
-      <c r="I53" s="118"/>
-      <c r="J53" s="117"/>
-      <c r="K53" s="119"/>
-      <c r="L53" s="135"/>
-      <c r="M53" s="121"/>
-      <c r="N53" s="122"/>
-      <c r="O53" s="128"/>
-      <c r="P53" s="124"/>
-      <c r="Q53" s="129"/>
-      <c r="R53" s="129"/>
+      <c r="I53" s="116"/>
+      <c r="J53" s="115"/>
+      <c r="K53" s="117"/>
+      <c r="L53" s="133"/>
+      <c r="M53" s="119"/>
+      <c r="N53" s="120"/>
+      <c r="O53" s="126"/>
+      <c r="P53" s="122"/>
+      <c r="Q53" s="127"/>
+      <c r="R53" s="127"/>
       <c r="S53" s="89"/>
     </row>
     <row r="54">
-      <c r="A54" s="116"/>
-      <c r="B54" s="106" t="str">
+      <c r="A54" s="114"/>
+      <c r="B54" s="104" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(F54="""","""",COUNTA(SPLIT(F54,"" "")))"),"")</f>
         <v/>
       </c>
       <c r="C54" s="22"/>
       <c r="D54" s="22"/>
       <c r="E54" s="22"/>
-      <c r="F54" s="139"/>
-      <c r="G54" s="118"/>
+      <c r="F54" s="137"/>
+      <c r="G54" s="116"/>
       <c r="H54" s="84"/>
-      <c r="I54" s="118"/>
-      <c r="J54" s="117"/>
-      <c r="K54" s="119"/>
-      <c r="L54" s="135"/>
-      <c r="M54" s="121"/>
-      <c r="N54" s="122"/>
-      <c r="O54" s="128"/>
-      <c r="P54" s="124"/>
-      <c r="Q54" s="129"/>
-      <c r="R54" s="129"/>
+      <c r="I54" s="116"/>
+      <c r="J54" s="115"/>
+      <c r="K54" s="117"/>
+      <c r="L54" s="133"/>
+      <c r="M54" s="119"/>
+      <c r="N54" s="120"/>
+      <c r="O54" s="126"/>
+      <c r="P54" s="122"/>
+      <c r="Q54" s="127"/>
+      <c r="R54" s="127"/>
       <c r="S54" s="89"/>
     </row>
     <row r="55">
-      <c r="A55" s="127"/>
-      <c r="B55" s="106" t="str">
+      <c r="A55" s="125"/>
+      <c r="B55" s="104" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(F55="""","""",COUNTA(SPLIT(F55,"" "")))"),"")</f>
         <v/>
       </c>
       <c r="C55" s="22"/>
       <c r="D55" s="22"/>
       <c r="E55" s="22"/>
-      <c r="F55" s="143"/>
-      <c r="G55" s="118"/>
+      <c r="F55" s="141"/>
+      <c r="G55" s="116"/>
       <c r="H55" s="84"/>
-      <c r="I55" s="118"/>
-      <c r="J55" s="117"/>
-      <c r="K55" s="119"/>
-      <c r="L55" s="135"/>
-      <c r="M55" s="121"/>
-      <c r="N55" s="122"/>
-      <c r="O55" s="128"/>
-      <c r="P55" s="124"/>
-      <c r="Q55" s="129"/>
-      <c r="R55" s="129"/>
+      <c r="I55" s="116"/>
+      <c r="J55" s="115"/>
+      <c r="K55" s="117"/>
+      <c r="L55" s="133"/>
+      <c r="M55" s="119"/>
+      <c r="N55" s="120"/>
+      <c r="O55" s="126"/>
+      <c r="P55" s="122"/>
+      <c r="Q55" s="127"/>
+      <c r="R55" s="127"/>
       <c r="S55" s="89"/>
     </row>
     <row r="56">
-      <c r="A56" s="127"/>
-      <c r="B56" s="106" t="str">
+      <c r="A56" s="125"/>
+      <c r="B56" s="104" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(F56="""","""",COUNTA(SPLIT(F56,"" "")))"),"")</f>
         <v/>
       </c>
       <c r="C56" s="22"/>
       <c r="D56" s="22"/>
       <c r="E56" s="22"/>
-      <c r="F56" s="139"/>
-      <c r="G56" s="118"/>
+      <c r="F56" s="137"/>
+      <c r="G56" s="116"/>
       <c r="H56" s="84"/>
-      <c r="I56" s="118"/>
-      <c r="J56" s="117"/>
-      <c r="K56" s="119"/>
-      <c r="L56" s="135"/>
-      <c r="M56" s="121"/>
-      <c r="N56" s="122"/>
-      <c r="O56" s="128"/>
-      <c r="P56" s="124"/>
-      <c r="Q56" s="129"/>
-      <c r="R56" s="129"/>
+      <c r="I56" s="116"/>
+      <c r="J56" s="115"/>
+      <c r="K56" s="117"/>
+      <c r="L56" s="133"/>
+      <c r="M56" s="119"/>
+      <c r="N56" s="120"/>
+      <c r="O56" s="126"/>
+      <c r="P56" s="122"/>
+      <c r="Q56" s="127"/>
+      <c r="R56" s="127"/>
       <c r="S56" s="89"/>
     </row>
     <row r="57">
-      <c r="A57" s="127"/>
-      <c r="B57" s="106" t="str">
+      <c r="A57" s="125"/>
+      <c r="B57" s="104" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(F57="""","""",COUNTA(SPLIT(F57,"" "")))"),"")</f>
         <v/>
       </c>
       <c r="C57" s="22"/>
       <c r="D57" s="22"/>
       <c r="E57" s="22"/>
-      <c r="F57" s="143"/>
-      <c r="G57" s="118"/>
+      <c r="F57" s="141"/>
+      <c r="G57" s="116"/>
       <c r="H57" s="84"/>
-      <c r="I57" s="118"/>
-      <c r="J57" s="117"/>
-      <c r="K57" s="119"/>
-      <c r="L57" s="135"/>
-      <c r="M57" s="121"/>
-      <c r="N57" s="122"/>
-      <c r="O57" s="128"/>
-      <c r="P57" s="124"/>
-      <c r="Q57" s="129"/>
-      <c r="R57" s="129"/>
+      <c r="I57" s="116"/>
+      <c r="J57" s="115"/>
+      <c r="K57" s="117"/>
+      <c r="L57" s="133"/>
+      <c r="M57" s="119"/>
+      <c r="N57" s="120"/>
+      <c r="O57" s="126"/>
+      <c r="P57" s="122"/>
+      <c r="Q57" s="127"/>
+      <c r="R57" s="127"/>
       <c r="S57" s="89"/>
     </row>
     <row r="58">
-      <c r="A58" s="127"/>
-      <c r="B58" s="106" t="str">
+      <c r="A58" s="125"/>
+      <c r="B58" s="104" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(F58="""","""",COUNTA(SPLIT(F58,"" "")))"),"")</f>
         <v/>
       </c>
       <c r="C58" s="22"/>
       <c r="D58" s="22"/>
       <c r="E58" s="22"/>
-      <c r="F58" s="139"/>
-      <c r="G58" s="118"/>
-      <c r="H58" s="131"/>
-      <c r="I58" s="118"/>
-      <c r="J58" s="117"/>
-      <c r="K58" s="119"/>
-      <c r="L58" s="135"/>
-      <c r="M58" s="121"/>
-      <c r="N58" s="122"/>
-      <c r="O58" s="128"/>
-      <c r="P58" s="124"/>
-      <c r="Q58" s="129"/>
-      <c r="R58" s="129"/>
+      <c r="F58" s="137"/>
+      <c r="G58" s="116"/>
+      <c r="H58" s="129"/>
+      <c r="I58" s="116"/>
+      <c r="J58" s="115"/>
+      <c r="K58" s="117"/>
+      <c r="L58" s="133"/>
+      <c r="M58" s="119"/>
+      <c r="N58" s="120"/>
+      <c r="O58" s="126"/>
+      <c r="P58" s="122"/>
+      <c r="Q58" s="127"/>
+      <c r="R58" s="127"/>
       <c r="S58" s="89"/>
     </row>
     <row r="59">
-      <c r="A59" s="127"/>
-      <c r="B59" s="106" t="str">
+      <c r="A59" s="125"/>
+      <c r="B59" s="104" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(F59="""","""",COUNTA(SPLIT(F59,"" "")))"),"")</f>
         <v/>
       </c>
       <c r="C59" s="22"/>
       <c r="D59" s="22"/>
       <c r="E59" s="22"/>
-      <c r="F59" s="139"/>
-      <c r="G59" s="118"/>
+      <c r="F59" s="137"/>
+      <c r="G59" s="116"/>
       <c r="H59" s="84"/>
-      <c r="I59" s="118"/>
-      <c r="J59" s="117"/>
-      <c r="K59" s="119"/>
-      <c r="L59" s="135"/>
-      <c r="M59" s="121"/>
-      <c r="N59" s="122"/>
-      <c r="O59" s="128"/>
-      <c r="P59" s="124"/>
-      <c r="Q59" s="129"/>
-      <c r="R59" s="129"/>
+      <c r="I59" s="116"/>
+      <c r="J59" s="115"/>
+      <c r="K59" s="117"/>
+      <c r="L59" s="133"/>
+      <c r="M59" s="119"/>
+      <c r="N59" s="120"/>
+      <c r="O59" s="126"/>
+      <c r="P59" s="122"/>
+      <c r="Q59" s="127"/>
+      <c r="R59" s="127"/>
       <c r="S59" s="89"/>
     </row>
     <row r="60">
-      <c r="A60" s="127"/>
-      <c r="B60" s="106" t="str">
+      <c r="A60" s="125"/>
+      <c r="B60" s="104" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(F60="""","""",COUNTA(SPLIT(F60,"" "")))"),"")</f>
         <v/>
       </c>
       <c r="C60" s="22"/>
       <c r="D60" s="22"/>
       <c r="E60" s="22"/>
-      <c r="F60" s="139"/>
-      <c r="G60" s="118"/>
+      <c r="F60" s="137"/>
+      <c r="G60" s="116"/>
       <c r="H60" s="84"/>
-      <c r="I60" s="118"/>
-      <c r="J60" s="117"/>
-      <c r="K60" s="119"/>
-      <c r="L60" s="135"/>
-      <c r="M60" s="121"/>
-      <c r="N60" s="122"/>
-      <c r="O60" s="128"/>
-      <c r="P60" s="124"/>
-      <c r="Q60" s="129"/>
-      <c r="R60" s="129"/>
+      <c r="I60" s="116"/>
+      <c r="J60" s="115"/>
+      <c r="K60" s="117"/>
+      <c r="L60" s="133"/>
+      <c r="M60" s="119"/>
+      <c r="N60" s="120"/>
+      <c r="O60" s="126"/>
+      <c r="P60" s="122"/>
+      <c r="Q60" s="127"/>
+      <c r="R60" s="127"/>
       <c r="S60" s="89"/>
     </row>
     <row r="61">
-      <c r="A61" s="127"/>
-      <c r="B61" s="106" t="str">
+      <c r="A61" s="125"/>
+      <c r="B61" s="104" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(F61="""","""",COUNTA(SPLIT(F61,"" "")))"),"")</f>
         <v/>
       </c>
       <c r="C61" s="22"/>
       <c r="D61" s="22"/>
       <c r="E61" s="22"/>
-      <c r="F61" s="143"/>
-      <c r="G61" s="118"/>
+      <c r="F61" s="141"/>
+      <c r="G61" s="116"/>
       <c r="H61" s="84"/>
-      <c r="I61" s="118"/>
-      <c r="J61" s="117"/>
-      <c r="K61" s="119"/>
-      <c r="L61" s="135"/>
-      <c r="M61" s="121"/>
-      <c r="N61" s="122"/>
-      <c r="O61" s="128"/>
-      <c r="P61" s="124"/>
-      <c r="Q61" s="129"/>
-      <c r="R61" s="129"/>
+      <c r="I61" s="116"/>
+      <c r="J61" s="115"/>
+      <c r="K61" s="117"/>
+      <c r="L61" s="133"/>
+      <c r="M61" s="119"/>
+      <c r="N61" s="120"/>
+      <c r="O61" s="126"/>
+      <c r="P61" s="122"/>
+      <c r="Q61" s="127"/>
+      <c r="R61" s="127"/>
       <c r="S61" s="89"/>
     </row>
     <row r="62">
-      <c r="A62" s="116"/>
-      <c r="B62" s="106" t="str">
+      <c r="A62" s="114"/>
+      <c r="B62" s="104" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(F62="""","""",COUNTA(SPLIT(F62,"" "")))"),"")</f>
         <v/>
       </c>
       <c r="C62" s="22"/>
       <c r="D62" s="22"/>
       <c r="E62" s="22"/>
-      <c r="F62" s="143"/>
-      <c r="G62" s="118"/>
+      <c r="F62" s="141"/>
+      <c r="G62" s="116"/>
       <c r="H62" s="84"/>
-      <c r="I62" s="118"/>
-      <c r="J62" s="117"/>
-      <c r="K62" s="119"/>
-      <c r="L62" s="135"/>
-      <c r="M62" s="121"/>
-      <c r="N62" s="122"/>
-      <c r="O62" s="128"/>
-      <c r="P62" s="124"/>
-      <c r="Q62" s="129"/>
-      <c r="R62" s="129"/>
+      <c r="I62" s="116"/>
+      <c r="J62" s="115"/>
+      <c r="K62" s="117"/>
+      <c r="L62" s="133"/>
+      <c r="M62" s="119"/>
+      <c r="N62" s="120"/>
+      <c r="O62" s="126"/>
+      <c r="P62" s="122"/>
+      <c r="Q62" s="127"/>
+      <c r="R62" s="127"/>
       <c r="S62" s="89"/>
     </row>
     <row r="63">
-      <c r="A63" s="148"/>
-      <c r="B63" s="106" t="str">
+      <c r="A63" s="146"/>
+      <c r="B63" s="104" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(F63="""","""",COUNTA(SPLIT(F63,"" "")))"),"")</f>
         <v/>
       </c>
       <c r="C63" s="77"/>
       <c r="D63" s="42"/>
-      <c r="E63" s="149"/>
-      <c r="F63" s="150"/>
-      <c r="G63" s="151"/>
-      <c r="H63" s="158"/>
-      <c r="I63" s="151"/>
+      <c r="E63" s="147"/>
+      <c r="F63" s="148"/>
+      <c r="G63" s="149"/>
+      <c r="H63" s="156"/>
+      <c r="I63" s="149"/>
       <c r="J63" s="77"/>
-      <c r="K63" s="119"/>
-      <c r="L63" s="135"/>
-      <c r="M63" s="121"/>
-      <c r="N63" s="122"/>
-      <c r="O63" s="128"/>
-      <c r="P63" s="124"/>
-      <c r="Q63" s="129"/>
-      <c r="R63" s="159"/>
-      <c r="S63" s="159"/>
+      <c r="K63" s="117"/>
+      <c r="L63" s="133"/>
+      <c r="M63" s="119"/>
+      <c r="N63" s="120"/>
+      <c r="O63" s="126"/>
+      <c r="P63" s="122"/>
+      <c r="Q63" s="127"/>
+      <c r="R63" s="157"/>
+      <c r="S63" s="157"/>
     </row>
     <row r="64">
-      <c r="A64" s="127"/>
-      <c r="B64" s="106" t="str">
+      <c r="A64" s="125"/>
+      <c r="B64" s="104" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(F64="""","""",COUNTA(SPLIT(F64,"" "")))"),"")</f>
         <v/>
       </c>
       <c r="C64" s="22"/>
       <c r="D64" s="22"/>
       <c r="E64" s="22"/>
-      <c r="F64" s="139"/>
-      <c r="G64" s="118"/>
+      <c r="F64" s="137"/>
+      <c r="G64" s="116"/>
       <c r="H64" s="84"/>
-      <c r="I64" s="118"/>
-      <c r="J64" s="117"/>
-      <c r="K64" s="119"/>
-      <c r="L64" s="135"/>
-      <c r="M64" s="121"/>
-      <c r="N64" s="122"/>
-      <c r="O64" s="128"/>
-      <c r="P64" s="124"/>
-      <c r="Q64" s="129"/>
-      <c r="R64" s="129"/>
+      <c r="I64" s="116"/>
+      <c r="J64" s="115"/>
+      <c r="K64" s="117"/>
+      <c r="L64" s="133"/>
+      <c r="M64" s="119"/>
+      <c r="N64" s="120"/>
+      <c r="O64" s="126"/>
+      <c r="P64" s="122"/>
+      <c r="Q64" s="127"/>
+      <c r="R64" s="127"/>
       <c r="S64" s="89"/>
     </row>
     <row r="65">
-      <c r="A65" s="116"/>
-      <c r="B65" s="106" t="str">
+      <c r="A65" s="114"/>
+      <c r="B65" s="104" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(F65="""","""",COUNTA(SPLIT(F65,"" "")))"),"")</f>
         <v/>
       </c>
       <c r="C65" s="22"/>
       <c r="D65" s="22"/>
       <c r="E65" s="22"/>
-      <c r="F65" s="143"/>
-      <c r="G65" s="118"/>
+      <c r="F65" s="141"/>
+      <c r="G65" s="116"/>
       <c r="H65" s="84"/>
-      <c r="I65" s="118"/>
-      <c r="J65" s="117"/>
-      <c r="K65" s="119"/>
-      <c r="L65" s="135"/>
-      <c r="M65" s="121"/>
-      <c r="N65" s="122"/>
-      <c r="O65" s="128"/>
-      <c r="P65" s="124"/>
-      <c r="Q65" s="129"/>
-      <c r="R65" s="129"/>
+      <c r="I65" s="116"/>
+      <c r="J65" s="115"/>
+      <c r="K65" s="117"/>
+      <c r="L65" s="133"/>
+      <c r="M65" s="119"/>
+      <c r="N65" s="120"/>
+      <c r="O65" s="126"/>
+      <c r="P65" s="122"/>
+      <c r="Q65" s="127"/>
+      <c r="R65" s="127"/>
       <c r="S65" s="89"/>
     </row>
     <row r="66">
-      <c r="A66" s="116"/>
-      <c r="B66" s="106" t="str">
+      <c r="A66" s="114"/>
+      <c r="B66" s="104" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(F66="""","""",COUNTA(SPLIT(F66,"" "")))"),"")</f>
         <v/>
       </c>
       <c r="C66" s="22"/>
       <c r="D66" s="22"/>
       <c r="E66" s="22"/>
-      <c r="F66" s="139"/>
-      <c r="G66" s="118"/>
-      <c r="H66" s="131"/>
-      <c r="I66" s="118"/>
-      <c r="J66" s="117"/>
-      <c r="K66" s="119"/>
-      <c r="L66" s="135"/>
-      <c r="M66" s="121"/>
-      <c r="N66" s="122"/>
-      <c r="O66" s="128"/>
-      <c r="P66" s="124"/>
-      <c r="Q66" s="129"/>
-      <c r="R66" s="129"/>
+      <c r="F66" s="137"/>
+      <c r="G66" s="116"/>
+      <c r="H66" s="129"/>
+      <c r="I66" s="116"/>
+      <c r="J66" s="115"/>
+      <c r="K66" s="117"/>
+      <c r="L66" s="133"/>
+      <c r="M66" s="119"/>
+      <c r="N66" s="120"/>
+      <c r="O66" s="126"/>
+      <c r="P66" s="122"/>
+      <c r="Q66" s="127"/>
+      <c r="R66" s="127"/>
       <c r="S66" s="89"/>
     </row>
     <row r="67">
-      <c r="A67" s="116"/>
-      <c r="B67" s="106" t="str">
+      <c r="A67" s="114"/>
+      <c r="B67" s="104" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(F67="""","""",COUNTA(SPLIT(F67,"" "")))"),"")</f>
         <v/>
       </c>
       <c r="C67" s="22"/>
       <c r="D67" s="22"/>
       <c r="E67" s="22"/>
-      <c r="F67" s="139"/>
-      <c r="G67" s="118"/>
+      <c r="F67" s="137"/>
+      <c r="G67" s="116"/>
       <c r="H67" s="84"/>
-      <c r="I67" s="118"/>
-      <c r="J67" s="157"/>
-      <c r="K67" s="119"/>
-      <c r="L67" s="135"/>
-      <c r="M67" s="121"/>
-      <c r="N67" s="122"/>
-      <c r="O67" s="128"/>
-      <c r="P67" s="124"/>
+      <c r="I67" s="116"/>
+      <c r="J67" s="155"/>
+      <c r="K67" s="117"/>
+      <c r="L67" s="133"/>
+      <c r="M67" s="119"/>
+      <c r="N67" s="120"/>
+      <c r="O67" s="126"/>
+      <c r="P67" s="122"/>
       <c r="Q67" s="89"/>
-      <c r="R67" s="129"/>
+      <c r="R67" s="127"/>
       <c r="S67" s="89"/>
     </row>
     <row r="68">
-      <c r="A68" s="116"/>
-      <c r="B68" s="106" t="str">
+      <c r="A68" s="114"/>
+      <c r="B68" s="104" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(F68="""","""",COUNTA(SPLIT(F68,"" "")))"),"")</f>
         <v/>
       </c>
       <c r="C68" s="22"/>
       <c r="D68" s="22"/>
       <c r="E68" s="22"/>
-      <c r="F68" s="139"/>
-      <c r="G68" s="118"/>
+      <c r="F68" s="137"/>
+      <c r="G68" s="116"/>
       <c r="H68" s="84"/>
-      <c r="I68" s="118"/>
-      <c r="J68" s="117"/>
-      <c r="K68" s="119"/>
-      <c r="L68" s="135"/>
-      <c r="M68" s="121"/>
-      <c r="N68" s="122"/>
-      <c r="O68" s="128"/>
-      <c r="P68" s="124"/>
-      <c r="Q68" s="129"/>
+      <c r="I68" s="116"/>
+      <c r="J68" s="115"/>
+      <c r="K68" s="117"/>
+      <c r="L68" s="133"/>
+      <c r="M68" s="119"/>
+      <c r="N68" s="120"/>
+      <c r="O68" s="126"/>
+      <c r="P68" s="122"/>
+      <c r="Q68" s="127"/>
       <c r="R68" s="89"/>
       <c r="S68" s="89"/>
     </row>
     <row r="69">
-      <c r="A69" s="127"/>
-      <c r="B69" s="106" t="str">
+      <c r="A69" s="125"/>
+      <c r="B69" s="104" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(F69="""","""",COUNTA(SPLIT(F69,"" "")))"),"")</f>
         <v/>
       </c>
       <c r="C69" s="22"/>
       <c r="D69" s="22"/>
       <c r="E69" s="22"/>
-      <c r="F69" s="143"/>
-      <c r="G69" s="118"/>
+      <c r="F69" s="141"/>
+      <c r="G69" s="116"/>
       <c r="H69" s="84"/>
-      <c r="I69" s="118"/>
-      <c r="J69" s="117"/>
-      <c r="K69" s="119"/>
-      <c r="L69" s="135"/>
-      <c r="M69" s="121"/>
-      <c r="N69" s="122"/>
-      <c r="O69" s="128"/>
-      <c r="P69" s="124"/>
-      <c r="Q69" s="129"/>
-      <c r="R69" s="129"/>
+      <c r="I69" s="116"/>
+      <c r="J69" s="115"/>
+      <c r="K69" s="117"/>
+      <c r="L69" s="133"/>
+      <c r="M69" s="119"/>
+      <c r="N69" s="120"/>
+      <c r="O69" s="126"/>
+      <c r="P69" s="122"/>
+      <c r="Q69" s="127"/>
+      <c r="R69" s="127"/>
       <c r="S69" s="89"/>
     </row>
     <row r="70">
-      <c r="A70" s="116"/>
-      <c r="B70" s="106" t="str">
+      <c r="A70" s="114"/>
+      <c r="B70" s="104" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(F70="""","""",COUNTA(SPLIT(F70,"" "")))"),"")</f>
         <v/>
       </c>
       <c r="C70" s="22"/>
       <c r="D70" s="22"/>
       <c r="E70" s="22"/>
-      <c r="F70" s="139"/>
-      <c r="G70" s="118"/>
+      <c r="F70" s="137"/>
+      <c r="G70" s="116"/>
       <c r="H70" s="84"/>
-      <c r="I70" s="118"/>
-      <c r="J70" s="117"/>
-      <c r="K70" s="119"/>
-      <c r="L70" s="135"/>
-      <c r="M70" s="121"/>
-      <c r="N70" s="122"/>
-      <c r="O70" s="128"/>
-      <c r="P70" s="124"/>
-      <c r="Q70" s="129"/>
-      <c r="R70" s="129"/>
+      <c r="I70" s="116"/>
+      <c r="J70" s="115"/>
+      <c r="K70" s="117"/>
+      <c r="L70" s="133"/>
+      <c r="M70" s="119"/>
+      <c r="N70" s="120"/>
+      <c r="O70" s="126"/>
+      <c r="P70" s="122"/>
+      <c r="Q70" s="127"/>
+      <c r="R70" s="127"/>
       <c r="S70" s="89"/>
     </row>
     <row r="71">
-      <c r="A71" s="116"/>
-      <c r="B71" s="106" t="str">
+      <c r="A71" s="114"/>
+      <c r="B71" s="104" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(F71="""","""",COUNTA(SPLIT(F71,"" "")))"),"")</f>
         <v/>
       </c>
       <c r="C71" s="22"/>
       <c r="D71" s="22"/>
       <c r="E71" s="22"/>
-      <c r="F71" s="143"/>
-      <c r="G71" s="118"/>
+      <c r="F71" s="141"/>
+      <c r="G71" s="116"/>
       <c r="H71" s="84"/>
-      <c r="I71" s="118"/>
-      <c r="J71" s="117"/>
-      <c r="K71" s="119"/>
-      <c r="L71" s="135"/>
-      <c r="M71" s="121"/>
-      <c r="N71" s="122"/>
-      <c r="O71" s="128"/>
-      <c r="P71" s="124"/>
-      <c r="Q71" s="129"/>
+      <c r="I71" s="116"/>
+      <c r="J71" s="115"/>
+      <c r="K71" s="117"/>
+      <c r="L71" s="133"/>
+      <c r="M71" s="119"/>
+      <c r="N71" s="120"/>
+      <c r="O71" s="126"/>
+      <c r="P71" s="122"/>
+      <c r="Q71" s="127"/>
       <c r="R71" s="89"/>
       <c r="S71" s="89"/>
     </row>
     <row r="72">
-      <c r="A72" s="127"/>
-      <c r="B72" s="106" t="str">
+      <c r="A72" s="125"/>
+      <c r="B72" s="104" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(F72="""","""",COUNTA(SPLIT(F72,"" "")))"),"")</f>
         <v/>
       </c>
       <c r="C72" s="22"/>
       <c r="D72" s="22"/>
       <c r="E72" s="22"/>
-      <c r="F72" s="139"/>
-      <c r="G72" s="118"/>
+      <c r="F72" s="137"/>
+      <c r="G72" s="116"/>
       <c r="H72" s="84"/>
-      <c r="I72" s="118"/>
-      <c r="J72" s="117"/>
-      <c r="K72" s="119"/>
-      <c r="L72" s="135"/>
-      <c r="M72" s="121"/>
-      <c r="N72" s="122"/>
-      <c r="O72" s="128"/>
-      <c r="P72" s="124"/>
-      <c r="Q72" s="129"/>
-      <c r="R72" s="129"/>
+      <c r="I72" s="116"/>
+      <c r="J72" s="115"/>
+      <c r="K72" s="117"/>
+      <c r="L72" s="133"/>
+      <c r="M72" s="119"/>
+      <c r="N72" s="120"/>
+      <c r="O72" s="126"/>
+      <c r="P72" s="122"/>
+      <c r="Q72" s="127"/>
+      <c r="R72" s="127"/>
       <c r="S72" s="89"/>
     </row>
     <row r="73">
-      <c r="A73" s="116"/>
-      <c r="B73" s="106" t="str">
+      <c r="A73" s="114"/>
+      <c r="B73" s="104" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(F73="""","""",COUNTA(SPLIT(F73,"" "")))"),"")</f>
         <v/>
       </c>
       <c r="C73" s="22"/>
       <c r="D73" s="22"/>
       <c r="E73" s="22"/>
-      <c r="F73" s="143"/>
-      <c r="G73" s="118"/>
+      <c r="F73" s="141"/>
+      <c r="G73" s="116"/>
       <c r="H73" s="84"/>
-      <c r="I73" s="118"/>
-      <c r="J73" s="117"/>
-      <c r="K73" s="119"/>
-      <c r="L73" s="135"/>
-      <c r="M73" s="121"/>
-      <c r="N73" s="122"/>
-      <c r="O73" s="128"/>
-      <c r="P73" s="124"/>
-      <c r="Q73" s="129"/>
-      <c r="R73" s="129"/>
+      <c r="I73" s="116"/>
+      <c r="J73" s="115"/>
+      <c r="K73" s="117"/>
+      <c r="L73" s="133"/>
+      <c r="M73" s="119"/>
+      <c r="N73" s="120"/>
+      <c r="O73" s="126"/>
+      <c r="P73" s="122"/>
+      <c r="Q73" s="127"/>
+      <c r="R73" s="127"/>
       <c r="S73" s="89"/>
     </row>
     <row r="74">
-      <c r="A74" s="127"/>
-      <c r="B74" s="106" t="str">
+      <c r="A74" s="125"/>
+      <c r="B74" s="104" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(F74="""","""",COUNTA(SPLIT(F74,"" "")))"),"")</f>
         <v/>
       </c>
       <c r="C74" s="22"/>
       <c r="D74" s="22"/>
       <c r="E74" s="22"/>
-      <c r="F74" s="139"/>
-      <c r="G74" s="118"/>
-      <c r="H74" s="131"/>
-      <c r="I74" s="118"/>
-      <c r="J74" s="117"/>
-      <c r="K74" s="119"/>
-      <c r="L74" s="135"/>
-      <c r="M74" s="121"/>
-      <c r="N74" s="122"/>
-      <c r="O74" s="128"/>
-      <c r="P74" s="124"/>
-      <c r="Q74" s="129"/>
-      <c r="R74" s="129"/>
+      <c r="F74" s="137"/>
+      <c r="G74" s="116"/>
+      <c r="H74" s="129"/>
+      <c r="I74" s="116"/>
+      <c r="J74" s="115"/>
+      <c r="K74" s="117"/>
+      <c r="L74" s="133"/>
+      <c r="M74" s="119"/>
+      <c r="N74" s="120"/>
+      <c r="O74" s="126"/>
+      <c r="P74" s="122"/>
+      <c r="Q74" s="127"/>
+      <c r="R74" s="127"/>
       <c r="S74" s="89"/>
     </row>
     <row r="75">
-      <c r="A75" s="127"/>
-      <c r="B75" s="106" t="str">
+      <c r="A75" s="125"/>
+      <c r="B75" s="104" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(F75="""","""",COUNTA(SPLIT(F75,"" "")))"),"")</f>
         <v/>
       </c>
       <c r="C75" s="22"/>
       <c r="D75" s="22"/>
       <c r="E75" s="22"/>
-      <c r="F75" s="143"/>
-      <c r="G75" s="160"/>
+      <c r="F75" s="141"/>
+      <c r="G75" s="158"/>
       <c r="H75" s="84"/>
-      <c r="I75" s="118"/>
-      <c r="J75" s="117"/>
-      <c r="K75" s="119"/>
-      <c r="L75" s="135"/>
-      <c r="M75" s="121"/>
-      <c r="N75" s="122"/>
-      <c r="O75" s="128"/>
-      <c r="P75" s="124"/>
-      <c r="Q75" s="129"/>
-      <c r="R75" s="129"/>
+      <c r="I75" s="116"/>
+      <c r="J75" s="115"/>
+      <c r="K75" s="117"/>
+      <c r="L75" s="133"/>
+      <c r="M75" s="119"/>
+      <c r="N75" s="120"/>
+      <c r="O75" s="126"/>
+      <c r="P75" s="122"/>
+      <c r="Q75" s="127"/>
+      <c r="R75" s="127"/>
       <c r="S75" s="89"/>
     </row>
     <row r="76">
-      <c r="A76" s="116"/>
-      <c r="B76" s="106" t="str">
+      <c r="A76" s="114"/>
+      <c r="B76" s="104" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(F76="""","""",COUNTA(SPLIT(F76,"" "")))"),"")</f>
         <v/>
       </c>
       <c r="C76" s="22"/>
       <c r="D76" s="22"/>
       <c r="E76" s="22"/>
-      <c r="F76" s="143"/>
-      <c r="G76" s="118"/>
+      <c r="F76" s="141"/>
+      <c r="G76" s="116"/>
       <c r="H76" s="84"/>
-      <c r="I76" s="118"/>
-      <c r="J76" s="117"/>
-      <c r="K76" s="119"/>
-      <c r="L76" s="135"/>
-      <c r="M76" s="121"/>
-      <c r="N76" s="122"/>
-      <c r="O76" s="128"/>
-      <c r="P76" s="124"/>
-      <c r="Q76" s="129"/>
-      <c r="R76" s="129"/>
+      <c r="I76" s="116"/>
+      <c r="J76" s="115"/>
+      <c r="K76" s="117"/>
+      <c r="L76" s="133"/>
+      <c r="M76" s="119"/>
+      <c r="N76" s="120"/>
+      <c r="O76" s="126"/>
+      <c r="P76" s="122"/>
+      <c r="Q76" s="127"/>
+      <c r="R76" s="127"/>
       <c r="S76" s="89"/>
     </row>
     <row r="77">
-      <c r="A77" s="127"/>
-      <c r="B77" s="106" t="str">
+      <c r="A77" s="125"/>
+      <c r="B77" s="104" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(F77="""","""",COUNTA(SPLIT(F77,"" "")))"),"")</f>
         <v/>
       </c>
       <c r="C77" s="22"/>
       <c r="D77" s="22"/>
       <c r="E77" s="22"/>
-      <c r="F77" s="143"/>
-      <c r="G77" s="118"/>
-      <c r="H77" s="161"/>
-      <c r="I77" s="118"/>
-      <c r="J77" s="117"/>
-      <c r="K77" s="119"/>
-      <c r="L77" s="135"/>
-      <c r="M77" s="121"/>
-      <c r="N77" s="122"/>
-      <c r="O77" s="128"/>
-      <c r="P77" s="124"/>
-      <c r="Q77" s="129"/>
-      <c r="R77" s="129"/>
+      <c r="F77" s="141"/>
+      <c r="G77" s="116"/>
+      <c r="H77" s="159"/>
+      <c r="I77" s="116"/>
+      <c r="J77" s="115"/>
+      <c r="K77" s="117"/>
+      <c r="L77" s="133"/>
+      <c r="M77" s="119"/>
+      <c r="N77" s="120"/>
+      <c r="O77" s="126"/>
+      <c r="P77" s="122"/>
+      <c r="Q77" s="127"/>
+      <c r="R77" s="127"/>
       <c r="S77" s="89"/>
     </row>
     <row r="78">
-      <c r="A78" s="127"/>
-      <c r="B78" s="106" t="str">
+      <c r="A78" s="125"/>
+      <c r="B78" s="104" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(F78="""","""",COUNTA(SPLIT(F78,"" "")))"),"")</f>
         <v/>
       </c>
       <c r="C78" s="22"/>
       <c r="D78" s="22"/>
       <c r="E78" s="22"/>
-      <c r="F78" s="143"/>
-      <c r="G78" s="118"/>
+      <c r="F78" s="141"/>
+      <c r="G78" s="116"/>
       <c r="H78" s="84"/>
-      <c r="I78" s="118"/>
-      <c r="J78" s="117"/>
-      <c r="K78" s="119"/>
-      <c r="L78" s="135"/>
-      <c r="M78" s="121"/>
-      <c r="N78" s="122"/>
-      <c r="O78" s="128"/>
-      <c r="P78" s="124"/>
-      <c r="Q78" s="129"/>
-      <c r="R78" s="129"/>
+      <c r="I78" s="116"/>
+      <c r="J78" s="115"/>
+      <c r="K78" s="117"/>
+      <c r="L78" s="133"/>
+      <c r="M78" s="119"/>
+      <c r="N78" s="120"/>
+      <c r="O78" s="126"/>
+      <c r="P78" s="122"/>
+      <c r="Q78" s="127"/>
+      <c r="R78" s="127"/>
       <c r="S78" s="89"/>
     </row>
     <row r="79">
-      <c r="A79" s="127"/>
-      <c r="B79" s="106" t="str">
+      <c r="A79" s="125"/>
+      <c r="B79" s="104" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(F79="""","""",COUNTA(SPLIT(F79,"" "")))"),"")</f>
         <v/>
       </c>
       <c r="C79" s="22"/>
       <c r="D79" s="22"/>
       <c r="E79" s="22"/>
-      <c r="F79" s="139"/>
-      <c r="G79" s="118"/>
+      <c r="F79" s="137"/>
+      <c r="G79" s="116"/>
       <c r="H79" s="84"/>
-      <c r="I79" s="118"/>
-      <c r="J79" s="117"/>
-      <c r="K79" s="119"/>
-      <c r="L79" s="135"/>
-      <c r="M79" s="121"/>
-      <c r="N79" s="122"/>
-      <c r="O79" s="128"/>
-      <c r="P79" s="124"/>
-      <c r="Q79" s="129"/>
+      <c r="I79" s="116"/>
+      <c r="J79" s="115"/>
+      <c r="K79" s="117"/>
+      <c r="L79" s="133"/>
+      <c r="M79" s="119"/>
+      <c r="N79" s="120"/>
+      <c r="O79" s="126"/>
+      <c r="P79" s="122"/>
+      <c r="Q79" s="127"/>
       <c r="R79" s="89"/>
       <c r="S79" s="89"/>
     </row>
     <row r="80">
-      <c r="A80" s="127"/>
-      <c r="B80" s="106" t="str">
+      <c r="A80" s="125"/>
+      <c r="B80" s="104" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(F80="""","""",COUNTA(SPLIT(F80,"" "")))"),"")</f>
         <v/>
       </c>
       <c r="C80" s="22"/>
       <c r="D80" s="22"/>
       <c r="E80" s="22"/>
-      <c r="F80" s="139"/>
-      <c r="G80" s="118"/>
+      <c r="F80" s="137"/>
+      <c r="G80" s="116"/>
       <c r="H80" s="84"/>
-      <c r="I80" s="118"/>
-      <c r="J80" s="117"/>
-      <c r="K80" s="119"/>
-      <c r="L80" s="135"/>
-      <c r="M80" s="121"/>
-      <c r="N80" s="122"/>
-      <c r="O80" s="128"/>
-      <c r="P80" s="124"/>
-      <c r="Q80" s="129"/>
-      <c r="R80" s="129"/>
+      <c r="I80" s="116"/>
+      <c r="J80" s="115"/>
+      <c r="K80" s="117"/>
+      <c r="L80" s="133"/>
+      <c r="M80" s="119"/>
+      <c r="N80" s="120"/>
+      <c r="O80" s="126"/>
+      <c r="P80" s="122"/>
+      <c r="Q80" s="127"/>
+      <c r="R80" s="127"/>
       <c r="S80" s="89"/>
     </row>
   </sheetData>
